--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2-350 (Аквадив 0.35 л.)/Аквадив 0.35 от 26.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2-350 (Аквадив 0.35 л.)/Аквадив 0.35 от 26.09.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-2-350 (Аквадив 0.35 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B567B-6A3A-4CD2-BBCB-9A592CDEE436}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -40,7 +41,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -482,13 +490,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="61" x14ac:knownFonts="1">
     <font>
@@ -2176,10 +2184,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="636">
+  <cellXfs count="637">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3347,7 +3355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3362,7 +3370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3415,25 +3423,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3445,42 +3453,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3489,13 +3471,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="97" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3508,7 +3490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3535,6 +3517,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3597,10 +3610,10 @@
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3961,57 +3974,65 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4301,7 +4322,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4347,7 +4374,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4392,7 +4425,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4436,7 +4475,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4485,7 +4530,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4531,7 +4582,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4575,7 +4632,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4619,7 +4682,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4668,7 +4737,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4714,7 +4789,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4758,7 +4839,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4802,7 +4889,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4851,7 +4944,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4897,7 +4996,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4941,7 +5046,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4985,7 +5096,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5034,7 +5151,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5080,7 +5203,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5124,7 +5253,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5168,7 +5303,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5217,7 +5358,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5261,7 +5408,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5305,7 +5458,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5349,7 +5508,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5392,7 +5557,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5438,7 +5609,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5482,7 +5659,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5526,7 +5709,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5575,7 +5764,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5621,7 +5816,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5665,7 +5866,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5709,7 +5916,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5758,7 +5971,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5804,7 +6023,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5848,7 +6073,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5892,7 +6123,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5941,7 +6178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5987,7 +6230,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6031,7 +6280,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6075,7 +6330,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6183,6 +6444,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6218,6 +6496,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6393,90 +6688,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="477" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="475" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
+      <c r="B1" s="479"/>
+      <c r="C1" s="479"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
       <c r="G1" s="365" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="478" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="476" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="479"/>
-      <c r="C2" s="479"/>
-      <c r="D2" s="479"/>
-      <c r="E2" s="480"/>
+      <c r="B2" s="477"/>
+      <c r="C2" s="477"/>
+      <c r="D2" s="477"/>
+      <c r="E2" s="478"/>
       <c r="G2" s="364" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="364" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="482" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="480" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="483"/>
-      <c r="C4" s="483"/>
-      <c r="D4" s="483"/>
-      <c r="E4" s="483"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="484" t="s">
+      <c r="B4" s="481"/>
+      <c r="C4" s="481"/>
+      <c r="D4" s="481"/>
+      <c r="E4" s="481"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="482" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="485"/>
-      <c r="C5" s="485"/>
-      <c r="D5" s="485"/>
-      <c r="E5" s="486"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="477" t="s">
+      <c r="B5" s="483"/>
+      <c r="C5" s="483"/>
+      <c r="D5" s="483"/>
+      <c r="E5" s="484"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="475" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="481"/>
-      <c r="C7" s="481"/>
-      <c r="D7" s="481"/>
-      <c r="E7" s="481"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="487"/>
-      <c r="B8" s="488"/>
-      <c r="C8" s="488"/>
-      <c r="D8" s="488"/>
-      <c r="E8" s="489"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="477" t="s">
+      <c r="B7" s="479"/>
+      <c r="C7" s="479"/>
+      <c r="D7" s="479"/>
+      <c r="E7" s="479"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="485"/>
+      <c r="B8" s="486"/>
+      <c r="C8" s="486"/>
+      <c r="D8" s="486"/>
+      <c r="E8" s="487"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="475" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="477"/>
+      <c r="B10" s="475"/>
       <c r="C10" s="366"/>
       <c r="D10" s="371" t="s">
         <v>93</v>
@@ -6486,36 +6781,36 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="475"/>
-      <c r="B11" s="476"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="473"/>
+      <c r="B11" s="474"/>
       <c r="D11" s="370">
         <v>43748</v>
       </c>
-      <c r="F11" s="490" t="s">
+      <c r="F11" s="488" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="490"/>
-      <c r="H11" s="490"/>
-      <c r="I11" s="490"/>
-      <c r="J11" s="491" t="s">
+      <c r="G11" s="488"/>
+      <c r="H11" s="488"/>
+      <c r="I11" s="488"/>
+      <c r="J11" s="489" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="491"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="490" t="s">
+      <c r="K11" s="489"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="488" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="490"/>
-      <c r="H12" s="490"/>
-      <c r="I12" s="490"/>
-      <c r="J12" s="491" t="s">
+      <c r="G12" s="488"/>
+      <c r="H12" s="488"/>
+      <c r="I12" s="488"/>
+      <c r="J12" s="489" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="491"/>
-    </row>
-    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="K12" s="489"/>
+    </row>
+    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="375" t="s">
         <v>88</v>
       </c>
@@ -6528,21 +6823,21 @@
       <c r="D13" s="375" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="470" t="s">
+      <c r="E13" s="458" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="490" t="s">
+      <c r="F13" s="488" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="490"/>
-      <c r="H13" s="490"/>
-      <c r="I13" s="490"/>
-      <c r="J13" s="491" t="s">
+      <c r="G13" s="488"/>
+      <c r="H13" s="488"/>
+      <c r="I13" s="488"/>
+      <c r="J13" s="489" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="491"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="489"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="367" t="s">
         <v>43</v>
       </c>
@@ -6560,7 +6855,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="367" t="s">
         <v>44</v>
       </c>
@@ -6578,7 +6873,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="367" t="s">
         <v>38</v>
       </c>
@@ -6596,7 +6891,7 @@
         <v>1094.4000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="367" t="s">
         <v>23</v>
       </c>
@@ -6614,7 +6909,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="367" t="s">
         <v>47</v>
       </c>
@@ -6632,7 +6927,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="367" t="s">
         <v>90</v>
       </c>
@@ -6650,7 +6945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="367" t="s">
         <v>51</v>
       </c>
@@ -6668,7 +6963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="367" t="s">
         <v>53</v>
       </c>
@@ -6686,7 +6981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="367" t="s">
         <v>91</v>
       </c>
@@ -6702,14 +6997,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="367" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="368">
         <v>18</v>
       </c>
-      <c r="C23" s="467" t="s">
+      <c r="C23" s="455" t="s">
         <v>139</v>
       </c>
       <c r="D23" s="368">
@@ -6720,7 +7015,7 @@
         <v>30.599999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="367" t="s">
         <v>70</v>
       </c>
@@ -6738,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="367" t="s">
         <v>92</v>
       </c>
@@ -6752,11 +7047,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="369" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="473">
+      <c r="B26" s="461">
         <v>0</v>
       </c>
       <c r="C26" s="399" t="s">
@@ -6770,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="369" t="s">
         <v>105</v>
       </c>
@@ -6781,7 +7076,7 @@
       <c r="D27" s="368"/>
       <c r="E27" s="368"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="372"/>
       <c r="D28" s="371"/>
       <c r="E28" s="371">
@@ -6796,14 +7091,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="474" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="472" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="474"/>
-      <c r="C29" s="474"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="472"/>
+      <c r="C29" s="472"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="365" t="s">
         <v>141</v>
       </c>
@@ -6832,7 +7127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6842,20 +7137,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="168" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="168" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="168" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="168" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="168" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="168" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="168" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="168" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="168" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="168" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="168" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="168" customWidth="1"/>
     <col min="8" max="18" width="9" style="168" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="168" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="168"/>
+    <col min="19" max="19" width="1.42578125" style="168" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="168"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="164"/>
       <c r="B1" s="165"/>
       <c r="C1" s="166"/>
@@ -6876,49 +7171,49 @@
       <c r="R1" s="166"/>
       <c r="S1" s="167"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="169"/>
-      <c r="B2" s="580"/>
-      <c r="C2" s="581"/>
-      <c r="D2" s="582"/>
-      <c r="E2" s="589" t="s">
+      <c r="B2" s="578"/>
+      <c r="C2" s="579"/>
+      <c r="D2" s="580"/>
+      <c r="E2" s="587" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="590"/>
-      <c r="G2" s="590"/>
-      <c r="H2" s="591"/>
-      <c r="I2" s="595" t="s">
+      <c r="F2" s="588"/>
+      <c r="G2" s="588"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="593" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="596"/>
-      <c r="K2" s="599">
+      <c r="J2" s="594"/>
+      <c r="K2" s="597">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="600"/>
+      <c r="L2" s="598"/>
       <c r="M2" s="170"/>
       <c r="N2" s="171"/>
       <c r="O2" s="172"/>
-      <c r="P2" s="615"/>
-      <c r="Q2" s="615"/>
+      <c r="P2" s="613"/>
+      <c r="Q2" s="613"/>
       <c r="R2" s="173"/>
       <c r="S2" s="174"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="169"/>
-      <c r="B3" s="583"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="585"/>
-      <c r="E3" s="592" t="s">
+      <c r="B3" s="581"/>
+      <c r="C3" s="582"/>
+      <c r="D3" s="583"/>
+      <c r="E3" s="590" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="594"/>
-      <c r="I3" s="597"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="601"/>
-      <c r="L3" s="602"/>
+      <c r="F3" s="591"/>
+      <c r="G3" s="591"/>
+      <c r="H3" s="592"/>
+      <c r="I3" s="595"/>
+      <c r="J3" s="596"/>
+      <c r="K3" s="599"/>
+      <c r="L3" s="600"/>
       <c r="M3" s="175"/>
       <c r="N3" s="176"/>
       <c r="O3" s="176"/>
@@ -6927,11 +7222,11 @@
       <c r="R3" s="177"/>
       <c r="S3" s="174"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="169"/>
-      <c r="B4" s="586"/>
-      <c r="C4" s="587"/>
-      <c r="D4" s="588"/>
+      <c r="B4" s="584"/>
+      <c r="C4" s="585"/>
+      <c r="D4" s="586"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -6948,24 +7243,24 @@
       <c r="R4" s="177"/>
       <c r="S4" s="174"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="169"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="484" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="482" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="576"/>
-      <c r="L5" s="486"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="574"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="178"/>
       <c r="N5" s="176"/>
       <c r="O5" s="176"/>
@@ -6974,24 +7269,24 @@
       <c r="R5" s="177"/>
       <c r="S5" s="174"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="169"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="478" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="476" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="576"/>
-      <c r="L6" s="486"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="484"/>
       <c r="M6" s="175"/>
       <c r="N6" s="176"/>
       <c r="O6" s="176"/>
@@ -7000,29 +7295,29 @@
       <c r="R6" s="177"/>
       <c r="S6" s="174"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="169"/>
-      <c r="B7" s="531" t="s">
+      <c r="B7" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
-      <c r="D7" s="487">
+      <c r="C7" s="573"/>
+      <c r="D7" s="485">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="532"/>
+      <c r="I7" s="572" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="475">
+      <c r="J7" s="573"/>
+      <c r="K7" s="473">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="476"/>
+      <c r="L7" s="474"/>
       <c r="M7" s="178"/>
       <c r="N7" s="176"/>
       <c r="O7" s="176"/>
@@ -7031,7 +7326,7 @@
       <c r="R7" s="177"/>
       <c r="S7" s="174"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="179"/>
       <c r="B8" s="180"/>
       <c r="C8" s="181"/>
@@ -7052,7 +7347,7 @@
       <c r="R8" s="184"/>
       <c r="S8" s="185"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="186"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -7085,7 +7380,7 @@
       <c r="R9" s="343"/>
       <c r="S9" s="201"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="179"/>
       <c r="B10" s="188" t="s">
         <v>25</v>
@@ -7120,7 +7415,7 @@
       <c r="R10" s="345"/>
       <c r="S10" s="185"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="179"/>
       <c r="B11" s="190" t="s">
         <v>26</v>
@@ -7153,7 +7448,7 @@
       <c r="R11" s="347"/>
       <c r="S11" s="185"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="179"/>
       <c r="B12" s="190" t="s">
         <v>2</v>
@@ -7186,7 +7481,7 @@
       <c r="R12" s="347"/>
       <c r="S12" s="185"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="179"/>
       <c r="B13" s="190" t="s">
         <v>3</v>
@@ -7219,7 +7514,7 @@
       <c r="R13" s="347"/>
       <c r="S13" s="185"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="179"/>
       <c r="B14" s="190" t="s">
         <v>27</v>
@@ -7252,7 +7547,7 @@
       <c r="R14" s="347"/>
       <c r="S14" s="185"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="179"/>
       <c r="B15" s="190" t="s">
         <v>28</v>
@@ -7285,7 +7580,7 @@
       <c r="R15" s="347"/>
       <c r="S15" s="185"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="179"/>
       <c r="B16" s="190" t="s">
         <v>4</v>
@@ -7318,7 +7613,7 @@
       <c r="R16" s="347"/>
       <c r="S16" s="185"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="179"/>
       <c r="B17" s="190" t="s">
         <v>9</v>
@@ -7351,7 +7646,7 @@
       <c r="R17" s="347"/>
       <c r="S17" s="185"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="179"/>
       <c r="B18" s="190" t="s">
         <v>5</v>
@@ -7384,7 +7679,7 @@
       <c r="R18" s="347"/>
       <c r="S18" s="185"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="192"/>
       <c r="B19" s="193"/>
       <c r="C19" s="193"/>
@@ -7405,15 +7700,15 @@
       <c r="R19" s="193"/>
       <c r="S19" s="195"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="606" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L21" s="604" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="606"/>
-      <c r="N21" s="606"/>
-      <c r="O21" s="472"/>
-      <c r="P21" s="472"/>
+      <c r="M21" s="604"/>
+      <c r="N21" s="604"/>
+      <c r="O21" s="460"/>
+      <c r="P21" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -7455,7 +7750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7465,20 +7760,20 @@
       <selection pane="bottomRight" activeCell="L21" sqref="L21:P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="207" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="207" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="207" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="207" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="207" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="207" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="207" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="207" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="207" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="207" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="207" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="207" customWidth="1"/>
     <col min="8" max="18" width="9" style="207" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="207" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="207"/>
+    <col min="19" max="19" width="1.42578125" style="207" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="207"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="203"/>
       <c r="B1" s="204"/>
       <c r="C1" s="205"/>
@@ -7499,49 +7794,49 @@
       <c r="R1" s="205"/>
       <c r="S1" s="206"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="208"/>
-      <c r="B2" s="580"/>
-      <c r="C2" s="581"/>
-      <c r="D2" s="582"/>
-      <c r="E2" s="589" t="s">
+      <c r="B2" s="578"/>
+      <c r="C2" s="579"/>
+      <c r="D2" s="580"/>
+      <c r="E2" s="587" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="590"/>
-      <c r="G2" s="590"/>
-      <c r="H2" s="591"/>
-      <c r="I2" s="595" t="s">
+      <c r="F2" s="588"/>
+      <c r="G2" s="588"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="593" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="596"/>
-      <c r="K2" s="599">
+      <c r="J2" s="594"/>
+      <c r="K2" s="597">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="600"/>
+      <c r="L2" s="598"/>
       <c r="M2" s="209"/>
       <c r="N2" s="210"/>
       <c r="O2" s="211"/>
-      <c r="P2" s="619"/>
-      <c r="Q2" s="619"/>
+      <c r="P2" s="617"/>
+      <c r="Q2" s="617"/>
       <c r="R2" s="212"/>
       <c r="S2" s="213"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
-      <c r="B3" s="583"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="585"/>
-      <c r="E3" s="592" t="s">
+      <c r="B3" s="581"/>
+      <c r="C3" s="582"/>
+      <c r="D3" s="583"/>
+      <c r="E3" s="590" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="594"/>
-      <c r="I3" s="597"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="601"/>
-      <c r="L3" s="602"/>
+      <c r="F3" s="591"/>
+      <c r="G3" s="591"/>
+      <c r="H3" s="592"/>
+      <c r="I3" s="595"/>
+      <c r="J3" s="596"/>
+      <c r="K3" s="599"/>
+      <c r="L3" s="600"/>
       <c r="M3" s="214"/>
       <c r="N3" s="215"/>
       <c r="O3" s="215"/>
@@ -7550,11 +7845,11 @@
       <c r="R3" s="216"/>
       <c r="S3" s="213"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="208"/>
-      <c r="B4" s="586"/>
-      <c r="C4" s="587"/>
-      <c r="D4" s="588"/>
+      <c r="B4" s="584"/>
+      <c r="C4" s="585"/>
+      <c r="D4" s="586"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -7571,24 +7866,24 @@
       <c r="R4" s="216"/>
       <c r="S4" s="213"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="208"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="484" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="482" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="576"/>
-      <c r="L5" s="486"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="574"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="217"/>
       <c r="N5" s="215"/>
       <c r="O5" s="215"/>
@@ -7597,24 +7892,24 @@
       <c r="R5" s="216"/>
       <c r="S5" s="213"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="208"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="478" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="476" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="576"/>
-      <c r="L6" s="486"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="484"/>
       <c r="M6" s="214"/>
       <c r="N6" s="215"/>
       <c r="O6" s="215"/>
@@ -7623,29 +7918,29 @@
       <c r="R6" s="216"/>
       <c r="S6" s="213"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="208"/>
-      <c r="B7" s="531" t="s">
+      <c r="B7" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
-      <c r="D7" s="487">
+      <c r="C7" s="573"/>
+      <c r="D7" s="485">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="532"/>
+      <c r="I7" s="572" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="475">
+      <c r="J7" s="573"/>
+      <c r="K7" s="473">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="476"/>
+      <c r="L7" s="474"/>
       <c r="M7" s="217"/>
       <c r="N7" s="215"/>
       <c r="O7" s="215"/>
@@ -7654,7 +7949,7 @@
       <c r="R7" s="216"/>
       <c r="S7" s="213"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="218"/>
       <c r="B8" s="219"/>
       <c r="C8" s="220"/>
@@ -7675,7 +7970,7 @@
       <c r="R8" s="223"/>
       <c r="S8" s="224"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="225"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -7708,7 +8003,7 @@
       <c r="R9" s="227"/>
       <c r="S9" s="228"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="218"/>
       <c r="B10" s="229" t="s">
         <v>25</v>
@@ -7741,7 +8036,7 @@
       <c r="R10" s="233"/>
       <c r="S10" s="224"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="218"/>
       <c r="B11" s="234" t="s">
         <v>26</v>
@@ -7774,7 +8069,7 @@
       <c r="R11" s="238"/>
       <c r="S11" s="224"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="218"/>
       <c r="B12" s="234" t="s">
         <v>2</v>
@@ -7807,7 +8102,7 @@
       <c r="R12" s="238"/>
       <c r="S12" s="224"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="218"/>
       <c r="B13" s="234" t="s">
         <v>3</v>
@@ -7840,7 +8135,7 @@
       <c r="R13" s="238"/>
       <c r="S13" s="224"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="218"/>
       <c r="B14" s="234" t="s">
         <v>27</v>
@@ -7873,7 +8168,7 @@
       <c r="R14" s="238"/>
       <c r="S14" s="224"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="218"/>
       <c r="B15" s="234" t="s">
         <v>28</v>
@@ -7906,7 +8201,7 @@
       <c r="R15" s="238"/>
       <c r="S15" s="224"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="218"/>
       <c r="B16" s="234" t="s">
         <v>9</v>
@@ -7939,7 +8234,7 @@
       <c r="R16" s="238"/>
       <c r="S16" s="224"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="218"/>
       <c r="B17" s="234" t="s">
         <v>5</v>
@@ -7972,14 +8267,14 @@
       <c r="R17" s="238"/>
       <c r="S17" s="224"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="218"/>
-      <c r="B18" s="616" t="s">
+      <c r="B18" s="614" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="617"/>
-      <c r="D18" s="617"/>
-      <c r="E18" s="618"/>
+      <c r="C18" s="615"/>
+      <c r="D18" s="615"/>
+      <c r="E18" s="616"/>
       <c r="F18" s="115" t="s">
         <v>16</v>
       </c>
@@ -7999,7 +8294,7 @@
       <c r="R18" s="242"/>
       <c r="S18" s="224"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="243"/>
       <c r="B19" s="244"/>
       <c r="C19" s="244"/>
@@ -8020,15 +8315,15 @@
       <c r="R19" s="244"/>
       <c r="S19" s="246"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="606" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L21" s="604" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="606"/>
-      <c r="N21" s="606"/>
-      <c r="O21" s="472"/>
-      <c r="P21" s="472"/>
+      <c r="M21" s="604"/>
+      <c r="N21" s="604"/>
+      <c r="O21" s="460"/>
+      <c r="P21" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -8080,7 +8375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8090,20 +8385,20 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8124,49 +8419,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="132"/>
-      <c r="B2" s="580"/>
-      <c r="C2" s="581"/>
-      <c r="D2" s="582"/>
-      <c r="E2" s="589" t="s">
+      <c r="B2" s="578"/>
+      <c r="C2" s="579"/>
+      <c r="D2" s="580"/>
+      <c r="E2" s="587" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="590"/>
-      <c r="G2" s="590"/>
-      <c r="H2" s="591"/>
-      <c r="I2" s="595" t="s">
+      <c r="F2" s="588"/>
+      <c r="G2" s="588"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="593" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="596"/>
-      <c r="K2" s="599">
+      <c r="J2" s="594"/>
+      <c r="K2" s="597">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="600"/>
+      <c r="L2" s="598"/>
       <c r="M2" s="133"/>
       <c r="N2" s="134"/>
       <c r="O2" s="135"/>
-      <c r="P2" s="620"/>
-      <c r="Q2" s="620"/>
+      <c r="P2" s="618"/>
+      <c r="Q2" s="618"/>
       <c r="R2" s="136"/>
       <c r="S2" s="137"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="132"/>
-      <c r="B3" s="583"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="585"/>
-      <c r="E3" s="592" t="s">
+      <c r="B3" s="581"/>
+      <c r="C3" s="582"/>
+      <c r="D3" s="583"/>
+      <c r="E3" s="590" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="594"/>
-      <c r="I3" s="597"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="601"/>
-      <c r="L3" s="602"/>
+      <c r="F3" s="591"/>
+      <c r="G3" s="591"/>
+      <c r="H3" s="592"/>
+      <c r="I3" s="595"/>
+      <c r="J3" s="596"/>
+      <c r="K3" s="599"/>
+      <c r="L3" s="600"/>
       <c r="M3" s="138"/>
       <c r="N3" s="139"/>
       <c r="O3" s="139"/>
@@ -8175,11 +8470,11 @@
       <c r="R3" s="140"/>
       <c r="S3" s="137"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="132"/>
-      <c r="B4" s="586"/>
-      <c r="C4" s="587"/>
-      <c r="D4" s="588"/>
+      <c r="B4" s="584"/>
+      <c r="C4" s="585"/>
+      <c r="D4" s="586"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -8196,24 +8491,24 @@
       <c r="R4" s="140"/>
       <c r="S4" s="137"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="132"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="484" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="482" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="576"/>
-      <c r="L5" s="486"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="574"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="141"/>
       <c r="N5" s="139"/>
       <c r="O5" s="139"/>
@@ -8222,24 +8517,24 @@
       <c r="R5" s="140"/>
       <c r="S5" s="137"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="132"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="478" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="476" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="576"/>
-      <c r="L6" s="486"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="484"/>
       <c r="M6" s="138"/>
       <c r="N6" s="139"/>
       <c r="O6" s="139"/>
@@ -8248,29 +8543,29 @@
       <c r="R6" s="140"/>
       <c r="S6" s="137"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="132"/>
-      <c r="B7" s="531" t="s">
+      <c r="B7" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
-      <c r="D7" s="487">
+      <c r="C7" s="573"/>
+      <c r="D7" s="485">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="532"/>
+      <c r="I7" s="572" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="475">
+      <c r="J7" s="573"/>
+      <c r="K7" s="473">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="476"/>
+      <c r="L7" s="474"/>
       <c r="M7" s="141"/>
       <c r="N7" s="139"/>
       <c r="O7" s="139"/>
@@ -8279,7 +8574,7 @@
       <c r="R7" s="140"/>
       <c r="S7" s="137"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="142"/>
       <c r="C8" s="143"/>
@@ -8300,7 +8595,7 @@
       <c r="R8" s="146"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="147"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -8333,12 +8628,12 @@
       <c r="R9" s="150"/>
       <c r="S9" s="151"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="152"/>
       <c r="B10" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="632">
+      <c r="C10" s="468">
         <v>35</v>
       </c>
       <c r="D10" s="154" t="s">
@@ -8366,12 +8661,12 @@
       <c r="R10" s="155"/>
       <c r="S10" s="156"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="152"/>
       <c r="B11" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="632">
+      <c r="C11" s="468">
         <v>14.3</v>
       </c>
       <c r="D11" s="154" t="s">
@@ -8399,7 +8694,7 @@
       <c r="R11" s="155"/>
       <c r="S11" s="156"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="152"/>
       <c r="B12" s="153" t="s">
         <v>2</v>
@@ -8432,12 +8727,12 @@
       <c r="R12" s="155"/>
       <c r="S12" s="156"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="152"/>
       <c r="B13" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="632">
+      <c r="C13" s="468">
         <v>65</v>
       </c>
       <c r="D13" s="154">
@@ -8465,7 +8760,7 @@
       <c r="R13" s="155"/>
       <c r="S13" s="156"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="152"/>
       <c r="B14" s="153" t="s">
         <v>27</v>
@@ -8498,7 +8793,7 @@
       <c r="R14" s="155"/>
       <c r="S14" s="156"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="152"/>
       <c r="B15" s="153" t="s">
         <v>28</v>
@@ -8531,7 +8826,7 @@
       <c r="R15" s="155"/>
       <c r="S15" s="156"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="152"/>
       <c r="B16" s="153" t="s">
         <v>4</v>
@@ -8564,7 +8859,7 @@
       <c r="R16" s="155"/>
       <c r="S16" s="156"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96"/>
       <c r="C17" s="97"/>
@@ -8585,7 +8880,7 @@
       <c r="R17" s="99"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="96"/>
       <c r="C18" s="97"/>
@@ -8606,7 +8901,7 @@
       <c r="R18" s="99"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
@@ -8627,7 +8922,7 @@
       <c r="R19" s="108"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="109"/>
       <c r="B20" s="110"/>
       <c r="C20" s="110"/>
@@ -8648,15 +8943,15 @@
       <c r="R20" s="112"/>
       <c r="S20" s="113"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L22" s="606" t="s">
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L22" s="604" t="s">
         <v>137</v>
       </c>
-      <c r="M22" s="606"/>
-      <c r="N22" s="606"/>
-      <c r="O22" s="472"/>
-      <c r="P22" s="472"/>
+      <c r="M22" s="604"/>
+      <c r="N22" s="604"/>
+      <c r="O22" s="460"/>
+      <c r="P22" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -8698,30 +8993,30 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="264" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="264" customWidth="1"/>
     <col min="2" max="2" width="5" style="264" customWidth="1"/>
     <col min="3" max="3" width="11" style="264" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="264" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="264" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="264" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="264" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="264" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="264" customWidth="1"/>
     <col min="8" max="18" width="9" style="264" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="264" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="264"/>
+    <col min="19" max="19" width="1.42578125" style="264" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="264"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="260"/>
       <c r="B1" s="261"/>
       <c r="C1" s="262"/>
@@ -8742,49 +9037,49 @@
       <c r="R1" s="262"/>
       <c r="S1" s="263"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="265"/>
-      <c r="B2" s="580"/>
-      <c r="C2" s="581"/>
-      <c r="D2" s="582"/>
-      <c r="E2" s="589" t="s">
+      <c r="B2" s="578"/>
+      <c r="C2" s="579"/>
+      <c r="D2" s="580"/>
+      <c r="E2" s="587" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="590"/>
-      <c r="G2" s="590"/>
-      <c r="H2" s="591"/>
-      <c r="I2" s="595" t="s">
+      <c r="F2" s="588"/>
+      <c r="G2" s="588"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="593" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="596"/>
-      <c r="K2" s="622">
+      <c r="J2" s="594"/>
+      <c r="K2" s="619">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="266"/>
       <c r="N2" s="267"/>
       <c r="O2" s="268"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
+      <c r="P2" s="623"/>
+      <c r="Q2" s="623"/>
       <c r="R2" s="269"/>
       <c r="S2" s="270"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="265"/>
-      <c r="B3" s="583"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="585"/>
-      <c r="E3" s="592" t="s">
+      <c r="B3" s="581"/>
+      <c r="C3" s="582"/>
+      <c r="D3" s="583"/>
+      <c r="E3" s="590" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="594"/>
-      <c r="I3" s="597"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="591"/>
+      <c r="G3" s="591"/>
+      <c r="H3" s="592"/>
+      <c r="I3" s="595"/>
+      <c r="J3" s="596"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="271"/>
       <c r="N3" s="272"/>
       <c r="O3" s="272"/>
@@ -8793,11 +9088,11 @@
       <c r="R3" s="273"/>
       <c r="S3" s="270"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="265"/>
-      <c r="B4" s="586"/>
-      <c r="C4" s="587"/>
-      <c r="D4" s="588"/>
+      <c r="B4" s="584"/>
+      <c r="C4" s="585"/>
+      <c r="D4" s="586"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -8814,24 +9109,24 @@
       <c r="R4" s="273"/>
       <c r="S4" s="270"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="265"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="484" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="482" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="576"/>
-      <c r="L5" s="486"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="574"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="274"/>
       <c r="N5" s="272"/>
       <c r="O5" s="272"/>
@@ -8840,24 +9135,24 @@
       <c r="R5" s="273"/>
       <c r="S5" s="270"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="265"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="478" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="476" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="576"/>
-      <c r="L6" s="486"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="484"/>
       <c r="M6" s="271"/>
       <c r="N6" s="272"/>
       <c r="O6" s="272"/>
@@ -8866,29 +9161,29 @@
       <c r="R6" s="273"/>
       <c r="S6" s="270"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="265"/>
-      <c r="B7" s="531" t="s">
+      <c r="B7" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
-      <c r="D7" s="487">
+      <c r="C7" s="573"/>
+      <c r="D7" s="485">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="532"/>
+      <c r="I7" s="572" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="475">
+      <c r="J7" s="573"/>
+      <c r="K7" s="473">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="476"/>
+      <c r="L7" s="474"/>
       <c r="M7" s="274"/>
       <c r="N7" s="272"/>
       <c r="O7" s="272"/>
@@ -8897,7 +9192,7 @@
       <c r="R7" s="273"/>
       <c r="S7" s="270"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="275"/>
       <c r="B8" s="276"/>
       <c r="C8" s="277"/>
@@ -8918,7 +9213,7 @@
       <c r="R8" s="280"/>
       <c r="S8" s="281"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="282"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -8951,12 +9246,12 @@
       <c r="R9" s="349"/>
       <c r="S9" s="284"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="275"/>
       <c r="B10" s="285" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="633">
+      <c r="C10" s="469">
         <v>40</v>
       </c>
       <c r="D10" s="286">
@@ -8984,12 +9279,12 @@
       <c r="R10" s="351"/>
       <c r="S10" s="281"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="275"/>
       <c r="B11" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="634">
+      <c r="C11" s="470">
         <v>77.8</v>
       </c>
       <c r="D11" s="290">
@@ -9017,12 +9312,12 @@
       <c r="R11" s="352"/>
       <c r="S11" s="281"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="275"/>
       <c r="B12" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="635">
+      <c r="C12" s="471">
         <v>89</v>
       </c>
       <c r="D12" s="290">
@@ -9050,12 +9345,12 @@
       <c r="R12" s="354"/>
       <c r="S12" s="281"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="275"/>
       <c r="B13" s="289" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="635">
+      <c r="C13" s="471">
         <v>12</v>
       </c>
       <c r="D13" s="290">
@@ -9083,12 +9378,12 @@
       <c r="R13" s="354"/>
       <c r="S13" s="281"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="275"/>
       <c r="B14" s="289" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="634">
+      <c r="C14" s="470">
         <v>52</v>
       </c>
       <c r="D14" s="290">
@@ -9116,7 +9411,7 @@
       <c r="R14" s="354"/>
       <c r="S14" s="281"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="275"/>
       <c r="B15" s="295"/>
       <c r="C15" s="296"/>
@@ -9137,7 +9432,7 @@
       <c r="R15" s="338"/>
       <c r="S15" s="281"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="298"/>
       <c r="B16" s="299"/>
       <c r="C16" s="299"/>
@@ -9158,22 +9453,18 @@
       <c r="R16" s="299"/>
       <c r="S16" s="301"/>
     </row>
-    <row r="17" spans="12:16" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L18" s="606" t="s">
+    <row r="17" spans="12:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L18" s="604" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="606"/>
-      <c r="N18" s="606"/>
-      <c r="O18" s="472"/>
-      <c r="P18" s="472"/>
+      <c r="M18" s="604"/>
+      <c r="N18" s="604"/>
+      <c r="O18" s="460"/>
+      <c r="P18" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -9189,6 +9480,10 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9214,36 +9509,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="379"/>
-      <c r="B1" s="469" t="s">
+      <c r="B1" s="457" t="s">
         <v>109</v>
       </c>
       <c r="C1" s="379"/>
-      <c r="D1" s="468" t="str">
+      <c r="D1" s="456" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
@@ -9256,9 +9551,9 @@
       <c r="K1" s="379"/>
       <c r="L1" s="379"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="379"/>
-      <c r="B2" s="626" t="s">
+      <c r="B2" s="462" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="379"/>
@@ -9272,23 +9567,23 @@
       <c r="K2" s="380"/>
       <c r="L2" s="380"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="494" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="492" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="494"/>
-      <c r="C3" s="494"/>
-      <c r="D3" s="494"/>
-      <c r="E3" s="494"/>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="494"/>
-      <c r="I3" s="494"/>
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="492"/>
+      <c r="E3" s="492"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="492"/>
+      <c r="I3" s="492"/>
       <c r="K3" s="381"/>
       <c r="L3" s="381"/>
       <c r="M3" s="382"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="382"/>
       <c r="B4" s="383"/>
       <c r="C4" s="383"/>
@@ -9300,7 +9595,7 @@
       <c r="K4" s="381"/>
       <c r="M4" s="366"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="386" t="s">
         <v>111</v>
       </c>
@@ -9330,7 +9625,7 @@
       <c r="K5" s="390"/>
       <c r="L5" s="390"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="391">
         <v>1</v>
       </c>
@@ -9360,7 +9655,7 @@
       <c r="K6" s="382"/>
       <c r="L6" s="396"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="397">
         <f>A6+1</f>
         <v>2</v>
@@ -9391,7 +9686,7 @@
       <c r="K7" s="382"/>
       <c r="L7" s="396"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="397">
         <f t="shared" ref="A8:A16" si="1">A7+1</f>
         <v>3</v>
@@ -9422,7 +9717,7 @@
       <c r="K8" s="382"/>
       <c r="L8" s="396"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="397">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9453,7 +9748,7 @@
       <c r="K9" s="382"/>
       <c r="L9" s="396"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="397">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9484,7 +9779,7 @@
       <c r="K10" s="402"/>
       <c r="L10" s="396"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="397">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9515,7 +9810,7 @@
       <c r="K11" s="382"/>
       <c r="L11" s="396"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="397">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9547,7 +9842,7 @@
       <c r="L12" s="396"/>
       <c r="M12" s="404"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="397">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9579,7 +9874,7 @@
       <c r="L13" s="396"/>
       <c r="M13" s="404"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="397">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9596,7 +9891,7 @@
         <f>Данные!$B22</f>
         <v>24</v>
       </c>
-      <c r="E14" s="467">
+      <c r="E14" s="455">
         <v>24</v>
       </c>
       <c r="F14" s="378"/>
@@ -9612,7 +9907,7 @@
       <c r="K14" s="402"/>
       <c r="L14" s="396"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="397">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9643,7 +9938,7 @@
       <c r="K15" s="402"/>
       <c r="L15" s="396"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="397">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9674,7 +9969,7 @@
       <c r="K16" s="402"/>
       <c r="L16" s="396"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="410"/>
       <c r="B17" s="411"/>
       <c r="C17" s="382"/>
@@ -9686,7 +9981,7 @@
       <c r="I17" s="382"/>
       <c r="J17" s="382"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="382"/>
       <c r="B18" s="413" t="s">
         <v>118</v>
@@ -9702,7 +9997,7 @@
       <c r="K18" s="414"/>
       <c r="L18" s="414"/>
     </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="386" t="s">
         <v>119</v>
       </c>
@@ -9734,7 +10029,7 @@
       <c r="K19" s="390"/>
       <c r="L19" s="390"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="418">
         <f>D6*700000</f>
         <v>16800000</v>
@@ -9770,7 +10065,7 @@
       <c r="K20" s="402"/>
       <c r="L20" s="402"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="426"/>
       <c r="B21" s="427">
         <v>43770</v>
@@ -9803,164 +10098,202 @@
       <c r="K21" s="382"/>
       <c r="L21" s="382"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="431"/>
-      <c r="B22" s="432"/>
-      <c r="C22" s="432"/>
-      <c r="D22" s="432"/>
-      <c r="E22" s="433"/>
-      <c r="F22" s="433"/>
-      <c r="G22" s="434"/>
-      <c r="H22" s="435"/>
-      <c r="I22" s="436"/>
+      <c r="B22" s="432">
+        <v>44053</v>
+      </c>
+      <c r="C22" s="432">
+        <v>44060</v>
+      </c>
+      <c r="D22" s="432">
+        <v>44070</v>
+      </c>
+      <c r="E22" s="433">
+        <v>1592512</v>
+      </c>
+      <c r="F22" s="433">
+        <v>1643360</v>
+      </c>
+      <c r="G22" s="422">
+        <f>F22/A$20</f>
+        <v>9.7819047619047625E-2</v>
+      </c>
+      <c r="H22" s="429">
+        <f>H21-F22</f>
+        <v>11911993</v>
+      </c>
+      <c r="I22" s="430">
+        <f>I21-G22</f>
+        <v>0.70904720238095242</v>
+      </c>
       <c r="J22" s="425"/>
       <c r="K22" s="402"/>
       <c r="L22" s="402"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="431"/>
-      <c r="B23" s="376"/>
-      <c r="C23" s="376"/>
-      <c r="D23" s="376"/>
-      <c r="E23" s="376"/>
-      <c r="F23" s="376"/>
-      <c r="G23" s="376"/>
-      <c r="H23" s="376"/>
-      <c r="I23" s="437"/>
+      <c r="B23" s="370">
+        <v>44125</v>
+      </c>
+      <c r="C23" s="370">
+        <v>44133</v>
+      </c>
+      <c r="D23" s="370">
+        <v>44137</v>
+      </c>
+      <c r="E23" s="633">
+        <v>1745088</v>
+      </c>
+      <c r="F23" s="633">
+        <v>1833473</v>
+      </c>
+      <c r="G23" s="422">
+        <f>F23/A$20</f>
+        <v>0.10913529761904762</v>
+      </c>
+      <c r="H23" s="429">
+        <f>H22-F23</f>
+        <v>10078520</v>
+      </c>
+      <c r="I23" s="430">
+        <f>I22-G23</f>
+        <v>0.59991190476190481</v>
+      </c>
       <c r="J23" s="425"/>
       <c r="K23" s="425"/>
       <c r="L23" s="382"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="431"/>
-      <c r="B24" s="432"/>
-      <c r="C24" s="432"/>
-      <c r="D24" s="432"/>
-      <c r="E24" s="433"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="438"/>
-      <c r="H24" s="435"/>
-      <c r="I24" s="436"/>
+      <c r="B24" s="370"/>
+      <c r="C24" s="370"/>
+      <c r="D24" s="370"/>
+      <c r="E24" s="634"/>
+      <c r="F24" s="634"/>
+      <c r="G24" s="625"/>
+      <c r="H24" s="624"/>
+      <c r="I24" s="434"/>
       <c r="J24" s="425"/>
-      <c r="K24" s="439"/>
+      <c r="K24" s="435"/>
       <c r="L24" s="382"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="431"/>
-      <c r="B25" s="432"/>
-      <c r="C25" s="432"/>
-      <c r="D25" s="432"/>
-      <c r="E25" s="433"/>
-      <c r="F25" s="433"/>
-      <c r="G25" s="438"/>
-      <c r="H25" s="435"/>
-      <c r="I25" s="436"/>
+      <c r="B25" s="370"/>
+      <c r="C25" s="370"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="634"/>
+      <c r="F25" s="634"/>
+      <c r="G25" s="625"/>
+      <c r="H25" s="624"/>
+      <c r="I25" s="434"/>
       <c r="J25" s="425"/>
       <c r="K25" s="425"/>
       <c r="L25" s="382"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="431"/>
-      <c r="B26" s="432"/>
-      <c r="C26" s="432"/>
-      <c r="D26" s="432"/>
-      <c r="E26" s="435"/>
-      <c r="F26" s="433"/>
-      <c r="G26" s="438"/>
-      <c r="H26" s="435"/>
-      <c r="I26" s="436"/>
+      <c r="B26" s="370"/>
+      <c r="C26" s="370"/>
+      <c r="D26" s="370"/>
+      <c r="E26" s="634"/>
+      <c r="F26" s="634"/>
+      <c r="G26" s="625"/>
+      <c r="H26" s="624"/>
+      <c r="I26" s="434"/>
       <c r="J26" s="425"/>
       <c r="K26" s="425"/>
       <c r="L26" s="382"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="431"/>
-      <c r="B27" s="432"/>
-      <c r="C27" s="432"/>
-      <c r="D27" s="432"/>
-      <c r="E27" s="435"/>
-      <c r="F27" s="433"/>
-      <c r="G27" s="438"/>
-      <c r="H27" s="435"/>
-      <c r="I27" s="436"/>
+      <c r="B27" s="370"/>
+      <c r="C27" s="370"/>
+      <c r="D27" s="370"/>
+      <c r="E27" s="634"/>
+      <c r="F27" s="634"/>
+      <c r="G27" s="625"/>
+      <c r="H27" s="624"/>
+      <c r="I27" s="434"/>
       <c r="J27" s="425"/>
       <c r="K27" s="425"/>
       <c r="L27" s="382"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="431"/>
-      <c r="B28" s="432"/>
-      <c r="C28" s="432"/>
-      <c r="D28" s="376"/>
-      <c r="E28" s="376"/>
-      <c r="F28" s="433"/>
-      <c r="G28" s="440"/>
-      <c r="H28" s="435"/>
-      <c r="I28" s="441"/>
+      <c r="B28" s="370"/>
+      <c r="C28" s="370"/>
+      <c r="D28" s="368"/>
+      <c r="E28" s="633"/>
+      <c r="F28" s="634"/>
+      <c r="G28" s="626"/>
+      <c r="H28" s="624"/>
+      <c r="I28" s="627"/>
       <c r="J28" s="425"/>
       <c r="K28" s="425"/>
       <c r="L28" s="382"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="431"/>
-      <c r="B29" s="432"/>
-      <c r="C29" s="432"/>
-      <c r="D29" s="376"/>
-      <c r="E29" s="376"/>
-      <c r="F29" s="433"/>
-      <c r="G29" s="438"/>
-      <c r="H29" s="435"/>
-      <c r="I29" s="441"/>
+      <c r="B29" s="370"/>
+      <c r="C29" s="370"/>
+      <c r="D29" s="368"/>
+      <c r="E29" s="633"/>
+      <c r="F29" s="634"/>
+      <c r="G29" s="625"/>
+      <c r="H29" s="624"/>
+      <c r="I29" s="627"/>
       <c r="J29" s="425"/>
       <c r="K29" s="425"/>
       <c r="L29" s="382"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="442"/>
-      <c r="B30" s="443"/>
-      <c r="C30" s="443"/>
-      <c r="D30" s="444"/>
-      <c r="E30" s="444"/>
-      <c r="F30" s="445"/>
-      <c r="G30" s="446"/>
-      <c r="H30" s="447"/>
-      <c r="I30" s="448"/>
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="436"/>
+      <c r="B30" s="628"/>
+      <c r="C30" s="628"/>
+      <c r="D30" s="629"/>
+      <c r="E30" s="635"/>
+      <c r="F30" s="636"/>
+      <c r="G30" s="630"/>
+      <c r="H30" s="631"/>
+      <c r="I30" s="632"/>
       <c r="J30" s="382"/>
       <c r="K30" s="382"/>
       <c r="L30" s="382"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="449" t="s">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="437" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="450"/>
-      <c r="C31" s="450"/>
-      <c r="D31" s="451"/>
-      <c r="E31" s="452">
+      <c r="B31" s="438"/>
+      <c r="C31" s="438"/>
+      <c r="D31" s="439"/>
+      <c r="E31" s="440">
         <f>SUM(E20:E30)</f>
-        <v>3075360</v>
-      </c>
-      <c r="F31" s="453">
+        <v>6412960</v>
+      </c>
+      <c r="F31" s="441">
         <f>SUM(F20:F30)</f>
-        <v>3244647</v>
-      </c>
-      <c r="G31" s="454">
+        <v>6721480</v>
+      </c>
+      <c r="G31" s="442">
         <f>SUM(G20:G30)</f>
-        <v>0.19313374999999999</v>
-      </c>
-      <c r="H31" s="455">
+        <v>0.40008809523809524</v>
+      </c>
+      <c r="H31" s="443">
         <f>A20-F31</f>
-        <v>13555353</v>
-      </c>
-      <c r="I31" s="456">
+        <v>10078520</v>
+      </c>
+      <c r="I31" s="444">
         <f>1-G31</f>
-        <v>0.80686625000000001</v>
-      </c>
-      <c r="J31" s="457"/>
-      <c r="K31" s="457"/>
-      <c r="L31" s="457"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.59991190476190481</v>
+      </c>
+      <c r="J31" s="445"/>
+      <c r="K31" s="445"/>
+      <c r="L31" s="445"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="382"/>
       <c r="B34" s="382"/>
       <c r="C34" s="382"/>
@@ -9972,13 +10305,13 @@
       <c r="I34" s="382"/>
       <c r="J34" s="382"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="495" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="493" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="495"/>
-      <c r="C35" s="495"/>
-      <c r="D35" s="495"/>
+      <c r="B35" s="493"/>
+      <c r="C35" s="493"/>
+      <c r="D35" s="493"/>
       <c r="E35" s="382"/>
       <c r="F35" s="382"/>
       <c r="G35" s="382"/>
@@ -9986,15 +10319,15 @@
       <c r="I35" s="382"/>
       <c r="J35" s="382"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="496" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="494" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="496"/>
-      <c r="C36" s="458" t="s">
+      <c r="B36" s="494"/>
+      <c r="C36" s="446" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="458" t="s">
+      <c r="D36" s="446" t="s">
         <v>132</v>
       </c>
       <c r="E36" s="382"/>
@@ -10004,30 +10337,30 @@
       <c r="I36" s="382"/>
       <c r="J36" s="382"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="497">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="495">
         <f>A20-F31</f>
-        <v>13555353</v>
-      </c>
-      <c r="B37" s="498"/>
-      <c r="C37" s="459">
+        <v>10078520</v>
+      </c>
+      <c r="B37" s="496"/>
+      <c r="C37" s="447">
         <f>1-G31</f>
-        <v>0.80686625000000001</v>
-      </c>
-      <c r="D37" s="460">
+        <v>0.59991190476190481</v>
+      </c>
+      <c r="D37" s="448">
         <f>(C37/0.8)*100</f>
-        <v>100.85828125</v>
-      </c>
-      <c r="E37" s="461" t="s">
+        <v>74.988988095238099</v>
+      </c>
+      <c r="E37" s="449" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="461"/>
-      <c r="G37" s="461"/>
-      <c r="H37" s="461"/>
-      <c r="I37" s="461"/>
-      <c r="J37" s="461"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="449"/>
+      <c r="G37" s="449"/>
+      <c r="H37" s="449"/>
+      <c r="I37" s="449"/>
+      <c r="J37" s="449"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="382"/>
       <c r="B38" s="382"/>
       <c r="C38" s="382"/>
@@ -10035,7 +10368,7 @@
       <c r="E38" s="382"/>
       <c r="F38" s="382"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="382"/>
       <c r="B39" s="382"/>
       <c r="C39" s="382"/>
@@ -10050,10 +10383,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="382"/>
-      <c r="B40" s="462"/>
-      <c r="C40" s="462"/>
+      <c r="B40" s="450"/>
+      <c r="C40" s="450"/>
       <c r="D40" s="382"/>
       <c r="E40" s="382"/>
       <c r="F40" s="382"/>
@@ -10062,146 +10395,146 @@
       <c r="I40" s="382"/>
       <c r="J40" s="382"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="463"/>
-      <c r="B41" s="463"/>
-      <c r="C41" s="463"/>
-      <c r="D41" s="463"/>
-      <c r="E41" s="463"/>
-      <c r="F41" s="463"/>
-      <c r="G41" s="463"/>
-      <c r="H41" s="463"/>
-      <c r="I41" s="499"/>
-      <c r="J41" s="500"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="464"/>
-      <c r="B42" s="465"/>
-      <c r="C42" s="465"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="451"/>
+      <c r="B41" s="451"/>
+      <c r="C41" s="451"/>
+      <c r="D41" s="451"/>
+      <c r="E41" s="451"/>
+      <c r="F41" s="451"/>
+      <c r="G41" s="451"/>
+      <c r="H41" s="451"/>
+      <c r="I41" s="497"/>
+      <c r="J41" s="498"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="452"/>
+      <c r="B42" s="453"/>
+      <c r="C42" s="453"/>
       <c r="D42" s="382"/>
       <c r="E42" s="382"/>
-      <c r="F42" s="465"/>
+      <c r="F42" s="453"/>
       <c r="G42" s="409"/>
-      <c r="H42" s="465"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="464"/>
-      <c r="B43" s="465"/>
-      <c r="C43" s="465"/>
-      <c r="D43" s="465"/>
-      <c r="E43" s="465"/>
-      <c r="F43" s="465"/>
+      <c r="H42" s="453"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="452"/>
+      <c r="B43" s="453"/>
+      <c r="C43" s="453"/>
+      <c r="D43" s="453"/>
+      <c r="E43" s="453"/>
+      <c r="F43" s="453"/>
       <c r="G43" s="409"/>
-      <c r="H43" s="465"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="464"/>
-      <c r="B44" s="465"/>
-      <c r="C44" s="465"/>
+      <c r="H43" s="453"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="452"/>
+      <c r="B44" s="453"/>
+      <c r="C44" s="453"/>
       <c r="D44" s="382"/>
       <c r="E44" s="382"/>
-      <c r="F44" s="465"/>
+      <c r="F44" s="453"/>
       <c r="G44" s="409"/>
-      <c r="H44" s="465"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="464"/>
-      <c r="B45" s="465"/>
-      <c r="C45" s="465"/>
-      <c r="D45" s="465"/>
-      <c r="E45" s="465"/>
-      <c r="F45" s="465"/>
+      <c r="H44" s="453"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="452"/>
+      <c r="B45" s="453"/>
+      <c r="C45" s="453"/>
+      <c r="D45" s="453"/>
+      <c r="E45" s="453"/>
+      <c r="F45" s="453"/>
       <c r="G45" s="409"/>
-      <c r="H45" s="465"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="464"/>
-      <c r="B46" s="465"/>
-      <c r="C46" s="465"/>
+      <c r="H45" s="453"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="452"/>
+      <c r="B46" s="453"/>
+      <c r="C46" s="453"/>
       <c r="D46" s="382"/>
       <c r="E46" s="382"/>
-      <c r="F46" s="465"/>
+      <c r="F46" s="453"/>
       <c r="G46" s="409"/>
-      <c r="H46" s="465"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="464"/>
-      <c r="B47" s="465"/>
+      <c r="H46" s="453"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="452"/>
+      <c r="B47" s="453"/>
       <c r="C47" s="402"/>
-      <c r="D47" s="466"/>
-      <c r="E47" s="466"/>
+      <c r="D47" s="454"/>
+      <c r="E47" s="454"/>
       <c r="F47" s="402"/>
       <c r="G47" s="402"/>
       <c r="H47" s="402"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="464"/>
-      <c r="B48" s="465"/>
-      <c r="C48" s="465"/>
-      <c r="D48" s="465"/>
-      <c r="E48" s="465"/>
-      <c r="F48" s="465"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="452"/>
+      <c r="B48" s="453"/>
+      <c r="C48" s="453"/>
+      <c r="D48" s="453"/>
+      <c r="E48" s="453"/>
+      <c r="F48" s="453"/>
       <c r="G48" s="409"/>
-      <c r="H48" s="465"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="464"/>
-      <c r="B49" s="465"/>
-      <c r="C49" s="465"/>
-      <c r="D49" s="465"/>
-      <c r="E49" s="465"/>
-      <c r="F49" s="465"/>
+      <c r="H48" s="453"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="452"/>
+      <c r="B49" s="453"/>
+      <c r="C49" s="453"/>
+      <c r="D49" s="453"/>
+      <c r="E49" s="453"/>
+      <c r="F49" s="453"/>
       <c r="G49" s="409"/>
-      <c r="H49" s="465"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="464"/>
-      <c r="B50" s="465"/>
-      <c r="C50" s="465"/>
+      <c r="H49" s="453"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="452"/>
+      <c r="B50" s="453"/>
+      <c r="C50" s="453"/>
       <c r="D50" s="382"/>
       <c r="E50" s="382"/>
-      <c r="F50" s="465"/>
+      <c r="F50" s="453"/>
       <c r="G50" s="409"/>
-      <c r="H50" s="465"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H50" s="453"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="382"/>
-      <c r="B51" s="492"/>
-      <c r="C51" s="492"/>
-      <c r="D51" s="493"/>
-      <c r="E51" s="461"/>
+      <c r="B51" s="490"/>
+      <c r="C51" s="490"/>
+      <c r="D51" s="491"/>
+      <c r="E51" s="449"/>
       <c r="F51" s="382"/>
       <c r="G51" s="382"/>
       <c r="H51" s="382"/>
       <c r="I51" s="382"/>
       <c r="J51" s="382"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="463"/>
-      <c r="B52" s="463"/>
-      <c r="C52" s="463"/>
-      <c r="D52" s="463"/>
-      <c r="E52" s="463"/>
-      <c r="F52" s="463"/>
-      <c r="G52" s="463"/>
-      <c r="H52" s="463"/>
-      <c r="I52" s="499"/>
-      <c r="J52" s="500"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="464"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="451"/>
+      <c r="B52" s="451"/>
+      <c r="C52" s="451"/>
+      <c r="D52" s="451"/>
+      <c r="E52" s="451"/>
+      <c r="F52" s="451"/>
+      <c r="G52" s="451"/>
+      <c r="H52" s="451"/>
+      <c r="I52" s="497"/>
+      <c r="J52" s="498"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="452"/>
       <c r="B53" s="382"/>
       <c r="C53" s="382"/>
       <c r="D53" s="382"/>
       <c r="E53" s="382"/>
       <c r="F53" s="409"/>
       <c r="G53" s="409"/>
-      <c r="H53" s="465"/>
-      <c r="I53" s="501"/>
-      <c r="J53" s="501"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="464"/>
+      <c r="H53" s="453"/>
+      <c r="I53" s="499"/>
+      <c r="J53" s="499"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="452"/>
       <c r="B54" s="382"/>
       <c r="C54" s="382"/>
       <c r="D54" s="402"/>
@@ -10209,10 +10542,10 @@
       <c r="F54" s="402"/>
       <c r="G54" s="402"/>
       <c r="H54" s="402"/>
-      <c r="I54" s="501"/>
-      <c r="J54" s="501"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="499"/>
+      <c r="J54" s="499"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="382"/>
       <c r="B55" s="382"/>
       <c r="C55" s="382"/>
@@ -10222,13 +10555,13 @@
       <c r="G55" s="382"/>
       <c r="H55" s="382"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="499"/>
-      <c r="C60" s="500"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="499"/>
-      <c r="C67" s="500"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="497"/>
+      <c r="C60" s="498"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="497"/>
+      <c r="C67" s="498"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10254,26 +10587,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A41" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G44" sqref="G44:G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="306"/>
+    <col min="1" max="3" width="9.140625" style="306"/>
     <col min="4" max="4" width="8" style="306" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="306"/>
-    <col min="6" max="6" width="10.33203125" style="306" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="306" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="306" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="306" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="306"/>
+    <col min="5" max="5" width="9.140625" style="306"/>
+    <col min="6" max="6" width="10.28515625" style="306" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="306" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="306" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="306" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="306"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="361" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="361" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="315" t="s">
         <v>58</v>
       </c>
@@ -10282,7 +10615,7 @@
       <c r="J2" s="316"/>
       <c r="K2" s="316"/>
     </row>
-    <row r="3" spans="1:11" s="361" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="361" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="315" t="s">
         <v>101</v>
       </c>
@@ -10291,7 +10624,7 @@
       <c r="J3" s="316"/>
       <c r="K3" s="316"/>
     </row>
-    <row r="4" spans="1:11" s="361" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="361" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="315" t="s">
         <v>104</v>
       </c>
@@ -10300,8 +10633,8 @@
       <c r="J4" s="316"/>
       <c r="K4" s="316"/>
     </row>
-    <row r="5" spans="1:11" s="361" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="361" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="361" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="362"/>
       <c r="H6" s="315" t="s">
         <v>102</v>
@@ -10309,12 +10642,12 @@
       <c r="I6" s="316"/>
       <c r="J6" s="316"/>
     </row>
-    <row r="7" spans="1:11" s="361" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="361" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="316"/>
       <c r="I7" s="316"/>
       <c r="J7" s="316"/>
     </row>
-    <row r="8" spans="1:11" s="361" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="361" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="309" t="s">
         <v>59</v>
       </c>
@@ -10324,50 +10657,50 @@
       </c>
       <c r="J8" s="316"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="503" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="501" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="503"/>
-      <c r="C11" s="503"/>
-      <c r="D11" s="503"/>
-      <c r="E11" s="503"/>
-      <c r="F11" s="503"/>
-      <c r="G11" s="503"/>
-      <c r="H11" s="503"/>
-      <c r="I11" s="503"/>
-      <c r="J11" s="503"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="502" t="s">
+      <c r="B11" s="501"/>
+      <c r="C11" s="501"/>
+      <c r="D11" s="501"/>
+      <c r="E11" s="501"/>
+      <c r="F11" s="501"/>
+      <c r="G11" s="501"/>
+      <c r="H11" s="501"/>
+      <c r="I11" s="501"/>
+      <c r="J11" s="501"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="500" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="502"/>
-      <c r="C12" s="502"/>
-      <c r="D12" s="502"/>
-      <c r="E12" s="502"/>
-      <c r="F12" s="502"/>
-      <c r="G12" s="502"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="502"/>
-      <c r="J12" s="502"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="504" t="str">
+      <c r="B12" s="500"/>
+      <c r="C12" s="500"/>
+      <c r="D12" s="500"/>
+      <c r="E12" s="500"/>
+      <c r="F12" s="500"/>
+      <c r="G12" s="500"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="500"/>
+      <c r="J12" s="500"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="502" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="B13" s="503"/>
-      <c r="C13" s="503"/>
-      <c r="D13" s="503"/>
-      <c r="E13" s="503"/>
-      <c r="F13" s="503"/>
-      <c r="G13" s="503"/>
-      <c r="H13" s="503"/>
-      <c r="I13" s="503"/>
-      <c r="J13" s="503"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="501"/>
+      <c r="C13" s="501"/>
+      <c r="D13" s="501"/>
+      <c r="E13" s="501"/>
+      <c r="F13" s="501"/>
+      <c r="G13" s="501"/>
+      <c r="H13" s="501"/>
+      <c r="I13" s="501"/>
+      <c r="J13" s="501"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="310" t="s">
         <v>60</v>
       </c>
@@ -10384,7 +10717,7 @@
       <c r="I15" s="310"/>
       <c r="J15" s="311"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="310" t="s">
         <v>95</v>
       </c>
@@ -10398,7 +10731,7 @@
       <c r="I16" s="310"/>
       <c r="J16" s="311"/>
     </row>
-    <row r="17" spans="1:10" s="363" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="363" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="318" t="s">
         <v>61</v>
       </c>
@@ -10419,7 +10752,7 @@
       </c>
       <c r="J17" s="311"/>
     </row>
-    <row r="18" spans="1:10" s="363" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="363" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="318" t="s">
         <v>61</v>
       </c>
@@ -10440,7 +10773,7 @@
       </c>
       <c r="J18" s="311"/>
     </row>
-    <row r="19" spans="1:10" s="363" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="363" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="319"/>
       <c r="B19" s="319"/>
       <c r="C19" s="319"/>
@@ -10458,7 +10791,7 @@
       </c>
       <c r="J19" s="311"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="310" t="s">
         <v>75</v>
       </c>
@@ -10475,7 +10808,7 @@
       </c>
       <c r="J20" s="311"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="310" t="s">
         <v>76</v>
       </c>
@@ -10489,496 +10822,496 @@
       <c r="I21" s="310"/>
       <c r="J21" s="311"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="508" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="506" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="508" t="s">
+      <c r="B22" s="506" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="508"/>
-      <c r="D22" s="508"/>
-      <c r="E22" s="508" t="s">
+      <c r="C22" s="506"/>
+      <c r="D22" s="506"/>
+      <c r="E22" s="506" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="508"/>
-      <c r="G22" s="526" t="s">
+      <c r="F22" s="506"/>
+      <c r="G22" s="524" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="508" t="s">
+      <c r="H22" s="506" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="508"/>
-      <c r="J22" s="508"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="508"/>
-      <c r="B23" s="508"/>
-      <c r="C23" s="508"/>
-      <c r="D23" s="508"/>
-      <c r="E23" s="508"/>
-      <c r="F23" s="508"/>
-      <c r="G23" s="526"/>
-      <c r="H23" s="508"/>
-      <c r="I23" s="508"/>
-      <c r="J23" s="508"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="509">
+      <c r="I22" s="506"/>
+      <c r="J22" s="506"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="506"/>
+      <c r="B23" s="506"/>
+      <c r="C23" s="506"/>
+      <c r="D23" s="506"/>
+      <c r="E23" s="506"/>
+      <c r="F23" s="506"/>
+      <c r="G23" s="524"/>
+      <c r="H23" s="506"/>
+      <c r="I23" s="506"/>
+      <c r="J23" s="506"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="507">
         <v>1</v>
       </c>
-      <c r="B24" s="523" t="s">
+      <c r="B24" s="521" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="524"/>
-      <c r="D24" s="525"/>
-      <c r="E24" s="511" t="str">
+      <c r="C24" s="522"/>
+      <c r="D24" s="523"/>
+      <c r="E24" s="509" t="str">
         <f>Данные!C14</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F24" s="512"/>
-      <c r="G24" s="515">
+      <c r="F24" s="510"/>
+      <c r="G24" s="513">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="517"/>
-      <c r="I24" s="518"/>
-      <c r="J24" s="519"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="510"/>
-      <c r="B25" s="505" t="str">
+      <c r="H24" s="515"/>
+      <c r="I24" s="516"/>
+      <c r="J24" s="517"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="508"/>
+      <c r="B25" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C25" s="506"/>
-      <c r="D25" s="507"/>
-      <c r="E25" s="513"/>
-      <c r="F25" s="514"/>
-      <c r="G25" s="516"/>
-      <c r="H25" s="520"/>
-      <c r="I25" s="521"/>
-      <c r="J25" s="522"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="509">
+      <c r="C25" s="504"/>
+      <c r="D25" s="505"/>
+      <c r="E25" s="511"/>
+      <c r="F25" s="512"/>
+      <c r="G25" s="514"/>
+      <c r="H25" s="518"/>
+      <c r="I25" s="519"/>
+      <c r="J25" s="520"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="507">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="527" t="s">
+      <c r="B26" s="525" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="528"/>
-      <c r="D26" s="529"/>
-      <c r="E26" s="511" t="str">
+      <c r="C26" s="526"/>
+      <c r="D26" s="527"/>
+      <c r="E26" s="509" t="str">
         <f>Данные!C15</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F26" s="512"/>
-      <c r="G26" s="515">
+      <c r="F26" s="510"/>
+      <c r="G26" s="513">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="517"/>
-      <c r="I26" s="518"/>
-      <c r="J26" s="519"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="510"/>
-      <c r="B27" s="505" t="str">
+      <c r="H26" s="515"/>
+      <c r="I26" s="516"/>
+      <c r="J26" s="517"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="508"/>
+      <c r="B27" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C27" s="506"/>
-      <c r="D27" s="507"/>
-      <c r="E27" s="513"/>
-      <c r="F27" s="514"/>
-      <c r="G27" s="516"/>
-      <c r="H27" s="520"/>
-      <c r="I27" s="521"/>
-      <c r="J27" s="522"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="509">
+      <c r="C27" s="504"/>
+      <c r="D27" s="505"/>
+      <c r="E27" s="511"/>
+      <c r="F27" s="512"/>
+      <c r="G27" s="514"/>
+      <c r="H27" s="518"/>
+      <c r="I27" s="519"/>
+      <c r="J27" s="520"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="507">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="527" t="s">
+      <c r="B28" s="525" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="528"/>
-      <c r="D28" s="529"/>
-      <c r="E28" s="511" t="str">
+      <c r="C28" s="526"/>
+      <c r="D28" s="527"/>
+      <c r="E28" s="509" t="str">
         <f>Данные!C16</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F28" s="512"/>
-      <c r="G28" s="515">
+      <c r="F28" s="510"/>
+      <c r="G28" s="513">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="517"/>
-      <c r="I28" s="518"/>
-      <c r="J28" s="519"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="510"/>
-      <c r="B29" s="505" t="str">
+      <c r="H28" s="515"/>
+      <c r="I28" s="516"/>
+      <c r="J28" s="517"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="508"/>
+      <c r="B29" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C29" s="506"/>
-      <c r="D29" s="507"/>
-      <c r="E29" s="513"/>
-      <c r="F29" s="514"/>
-      <c r="G29" s="516"/>
-      <c r="H29" s="520"/>
-      <c r="I29" s="521"/>
-      <c r="J29" s="522"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="509">
+      <c r="C29" s="504"/>
+      <c r="D29" s="505"/>
+      <c r="E29" s="511"/>
+      <c r="F29" s="512"/>
+      <c r="G29" s="514"/>
+      <c r="H29" s="518"/>
+      <c r="I29" s="519"/>
+      <c r="J29" s="520"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="507">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="527" t="s">
+      <c r="B30" s="525" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="528"/>
-      <c r="D30" s="529"/>
-      <c r="E30" s="511" t="str">
+      <c r="C30" s="526"/>
+      <c r="D30" s="527"/>
+      <c r="E30" s="509" t="str">
         <f>Данные!C17</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F30" s="512"/>
-      <c r="G30" s="515">
+      <c r="F30" s="510"/>
+      <c r="G30" s="513">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="517"/>
-      <c r="I30" s="518"/>
-      <c r="J30" s="519"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="510"/>
-      <c r="B31" s="505" t="str">
+      <c r="H30" s="515"/>
+      <c r="I30" s="516"/>
+      <c r="J30" s="517"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="508"/>
+      <c r="B31" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C31" s="506"/>
-      <c r="D31" s="507"/>
-      <c r="E31" s="530"/>
-      <c r="F31" s="514"/>
-      <c r="G31" s="516"/>
-      <c r="H31" s="520"/>
-      <c r="I31" s="521"/>
-      <c r="J31" s="522"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="509">
+      <c r="C31" s="504"/>
+      <c r="D31" s="505"/>
+      <c r="E31" s="528"/>
+      <c r="F31" s="512"/>
+      <c r="G31" s="514"/>
+      <c r="H31" s="518"/>
+      <c r="I31" s="519"/>
+      <c r="J31" s="520"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="507">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="527" t="s">
+      <c r="B32" s="525" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="528"/>
-      <c r="D32" s="529"/>
-      <c r="E32" s="511" t="str">
+      <c r="C32" s="526"/>
+      <c r="D32" s="527"/>
+      <c r="E32" s="509" t="str">
         <f>Данные!C18</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F32" s="512"/>
-      <c r="G32" s="515">
+      <c r="F32" s="510"/>
+      <c r="G32" s="513">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="517"/>
-      <c r="I32" s="518"/>
-      <c r="J32" s="519"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="510"/>
-      <c r="B33" s="505" t="str">
+      <c r="H32" s="515"/>
+      <c r="I32" s="516"/>
+      <c r="J32" s="517"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="508"/>
+      <c r="B33" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C33" s="506"/>
-      <c r="D33" s="507"/>
-      <c r="E33" s="530"/>
-      <c r="F33" s="514"/>
-      <c r="G33" s="516"/>
-      <c r="H33" s="520"/>
-      <c r="I33" s="521"/>
-      <c r="J33" s="522"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="509">
+      <c r="C33" s="504"/>
+      <c r="D33" s="505"/>
+      <c r="E33" s="528"/>
+      <c r="F33" s="512"/>
+      <c r="G33" s="514"/>
+      <c r="H33" s="518"/>
+      <c r="I33" s="519"/>
+      <c r="J33" s="520"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="507">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="527" t="s">
+      <c r="B34" s="525" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="528"/>
-      <c r="D34" s="529"/>
-      <c r="E34" s="511" t="str">
+      <c r="C34" s="526"/>
+      <c r="D34" s="527"/>
+      <c r="E34" s="509" t="str">
         <f>Данные!C19</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F34" s="512"/>
-      <c r="G34" s="515">
+      <c r="F34" s="510"/>
+      <c r="G34" s="513">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H34" s="517"/>
-      <c r="I34" s="518"/>
-      <c r="J34" s="519"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="510"/>
-      <c r="B35" s="505" t="str">
+      <c r="H34" s="515"/>
+      <c r="I34" s="516"/>
+      <c r="J34" s="517"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="508"/>
+      <c r="B35" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C35" s="506"/>
-      <c r="D35" s="507"/>
-      <c r="E35" s="530"/>
-      <c r="F35" s="514"/>
-      <c r="G35" s="516"/>
-      <c r="H35" s="520"/>
-      <c r="I35" s="521"/>
-      <c r="J35" s="522"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="509">
+      <c r="C35" s="504"/>
+      <c r="D35" s="505"/>
+      <c r="E35" s="528"/>
+      <c r="F35" s="512"/>
+      <c r="G35" s="514"/>
+      <c r="H35" s="518"/>
+      <c r="I35" s="519"/>
+      <c r="J35" s="520"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="507">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="527" t="s">
+      <c r="B36" s="525" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="528"/>
-      <c r="D36" s="529"/>
-      <c r="E36" s="511" t="str">
+      <c r="C36" s="526"/>
+      <c r="D36" s="527"/>
+      <c r="E36" s="509" t="str">
         <f>Данные!C20</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F36" s="512"/>
-      <c r="G36" s="515">
+      <c r="F36" s="510"/>
+      <c r="G36" s="513">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="517"/>
-      <c r="I36" s="518"/>
-      <c r="J36" s="519"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="510"/>
-      <c r="B37" s="505" t="str">
+      <c r="H36" s="515"/>
+      <c r="I36" s="516"/>
+      <c r="J36" s="517"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="508"/>
+      <c r="B37" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C37" s="506"/>
-      <c r="D37" s="507"/>
-      <c r="E37" s="530"/>
-      <c r="F37" s="514"/>
-      <c r="G37" s="516"/>
-      <c r="H37" s="520"/>
-      <c r="I37" s="521"/>
-      <c r="J37" s="522"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="509">
+      <c r="C37" s="504"/>
+      <c r="D37" s="505"/>
+      <c r="E37" s="528"/>
+      <c r="F37" s="512"/>
+      <c r="G37" s="514"/>
+      <c r="H37" s="518"/>
+      <c r="I37" s="519"/>
+      <c r="J37" s="520"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="507">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="527" t="s">
+      <c r="B38" s="525" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="528"/>
-      <c r="D38" s="529"/>
-      <c r="E38" s="511" t="str">
+      <c r="C38" s="526"/>
+      <c r="D38" s="527"/>
+      <c r="E38" s="509" t="str">
         <f>Данные!C21</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F38" s="512"/>
-      <c r="G38" s="515">
+      <c r="F38" s="510"/>
+      <c r="G38" s="513">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="517"/>
-      <c r="I38" s="518"/>
-      <c r="J38" s="519"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="510"/>
-      <c r="B39" s="505" t="str">
+      <c r="H38" s="515"/>
+      <c r="I38" s="516"/>
+      <c r="J38" s="517"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="508"/>
+      <c r="B39" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C39" s="506"/>
-      <c r="D39" s="507"/>
-      <c r="E39" s="530"/>
-      <c r="F39" s="514"/>
-      <c r="G39" s="516"/>
-      <c r="H39" s="520"/>
-      <c r="I39" s="521"/>
-      <c r="J39" s="522"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="509">
+      <c r="C39" s="504"/>
+      <c r="D39" s="505"/>
+      <c r="E39" s="528"/>
+      <c r="F39" s="512"/>
+      <c r="G39" s="514"/>
+      <c r="H39" s="518"/>
+      <c r="I39" s="519"/>
+      <c r="J39" s="520"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="507">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="527" t="s">
+      <c r="B40" s="525" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="528"/>
-      <c r="D40" s="529"/>
-      <c r="E40" s="511" t="str">
+      <c r="C40" s="526"/>
+      <c r="D40" s="527"/>
+      <c r="E40" s="509" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F40" s="512"/>
-      <c r="G40" s="515">
+      <c r="F40" s="510"/>
+      <c r="G40" s="513">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="517"/>
-      <c r="I40" s="518"/>
-      <c r="J40" s="519"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="510"/>
-      <c r="B41" s="505" t="str">
+      <c r="H40" s="515"/>
+      <c r="I40" s="516"/>
+      <c r="J40" s="517"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="508"/>
+      <c r="B41" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C41" s="506"/>
-      <c r="D41" s="507"/>
-      <c r="E41" s="530"/>
-      <c r="F41" s="514"/>
-      <c r="G41" s="516"/>
-      <c r="H41" s="520"/>
-      <c r="I41" s="521"/>
-      <c r="J41" s="522"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="509">
+      <c r="C41" s="504"/>
+      <c r="D41" s="505"/>
+      <c r="E41" s="528"/>
+      <c r="F41" s="512"/>
+      <c r="G41" s="514"/>
+      <c r="H41" s="518"/>
+      <c r="I41" s="519"/>
+      <c r="J41" s="520"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="507">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="527" t="s">
+      <c r="B42" s="525" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="528"/>
-      <c r="D42" s="529"/>
-      <c r="E42" s="511" t="str">
+      <c r="C42" s="526"/>
+      <c r="D42" s="527"/>
+      <c r="E42" s="509" t="str">
         <f>Данные!C26</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F42" s="512"/>
-      <c r="G42" s="515">
+      <c r="F42" s="510"/>
+      <c r="G42" s="513">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="517"/>
-      <c r="I42" s="518"/>
-      <c r="J42" s="519"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="510"/>
-      <c r="B43" s="505" t="str">
+      <c r="H42" s="515"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="517"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="508"/>
+      <c r="B43" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C43" s="506"/>
-      <c r="D43" s="507"/>
-      <c r="E43" s="530"/>
-      <c r="F43" s="514"/>
-      <c r="G43" s="516"/>
-      <c r="H43" s="520"/>
-      <c r="I43" s="521"/>
-      <c r="J43" s="522"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="509">
+      <c r="C43" s="504"/>
+      <c r="D43" s="505"/>
+      <c r="E43" s="528"/>
+      <c r="F43" s="512"/>
+      <c r="G43" s="514"/>
+      <c r="H43" s="518"/>
+      <c r="I43" s="519"/>
+      <c r="J43" s="520"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="507">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="527" t="s">
+      <c r="B44" s="525" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="528"/>
-      <c r="D44" s="529"/>
-      <c r="E44" s="511">
+      <c r="C44" s="526"/>
+      <c r="D44" s="527"/>
+      <c r="E44" s="509">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="512"/>
-      <c r="G44" s="515">
+      <c r="F44" s="510"/>
+      <c r="G44" s="513">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="517"/>
-      <c r="I44" s="518"/>
-      <c r="J44" s="519"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="510"/>
-      <c r="B45" s="505" t="str">
+      <c r="H44" s="515"/>
+      <c r="I44" s="516"/>
+      <c r="J44" s="517"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="508"/>
+      <c r="B45" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C45" s="506"/>
-      <c r="D45" s="507"/>
-      <c r="E45" s="530"/>
-      <c r="F45" s="514"/>
-      <c r="G45" s="516"/>
-      <c r="H45" s="520"/>
-      <c r="I45" s="521"/>
-      <c r="J45" s="522"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="509">
+      <c r="C45" s="504"/>
+      <c r="D45" s="505"/>
+      <c r="E45" s="528"/>
+      <c r="F45" s="512"/>
+      <c r="G45" s="514"/>
+      <c r="H45" s="518"/>
+      <c r="I45" s="519"/>
+      <c r="J45" s="520"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="507">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="527" t="s">
+      <c r="B46" s="525" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="528"/>
-      <c r="D46" s="529"/>
-      <c r="E46" s="511" t="str">
+      <c r="C46" s="526"/>
+      <c r="D46" s="527"/>
+      <c r="E46" s="509" t="str">
         <f>Данные!C24</f>
         <v>ХХI-В-28-2-350</v>
       </c>
-      <c r="F46" s="512"/>
-      <c r="G46" s="515">
+      <c r="F46" s="510"/>
+      <c r="G46" s="513">
         <f>Данные!B24</f>
         <v>0</v>
       </c>
-      <c r="H46" s="517"/>
-      <c r="I46" s="518"/>
-      <c r="J46" s="519"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="510"/>
-      <c r="B47" s="505" t="str">
+      <c r="H46" s="515"/>
+      <c r="I46" s="516"/>
+      <c r="J46" s="517"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="508"/>
+      <c r="B47" s="503" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2-350)</v>
       </c>
-      <c r="C47" s="506"/>
-      <c r="D47" s="507"/>
-      <c r="E47" s="530"/>
-      <c r="F47" s="514"/>
-      <c r="G47" s="516"/>
-      <c r="H47" s="520"/>
-      <c r="I47" s="521"/>
-      <c r="J47" s="522"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="504"/>
+      <c r="D47" s="505"/>
+      <c r="E47" s="528"/>
+      <c r="F47" s="512"/>
+      <c r="G47" s="514"/>
+      <c r="H47" s="518"/>
+      <c r="I47" s="519"/>
+      <c r="J47" s="520"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="310"/>
       <c r="B48" s="310"/>
       <c r="C48" s="310"/>
@@ -10990,7 +11323,7 @@
       <c r="I48" s="310"/>
       <c r="J48" s="311"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="310" t="s">
         <v>71</v>
       </c>
@@ -11004,7 +11337,7 @@
       <c r="I49" s="310"/>
       <c r="J49" s="311"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="310"/>
       <c r="B50" s="310"/>
       <c r="C50" s="310"/>
@@ -11016,7 +11349,7 @@
       <c r="I50" s="310"/>
       <c r="J50" s="311"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="310"/>
       <c r="B51" s="313" t="s">
         <v>72</v>
@@ -11032,7 +11365,7 @@
       <c r="I51" s="310"/>
       <c r="J51" s="311"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="310"/>
       <c r="B52" s="310"/>
       <c r="C52" s="310"/>
@@ -11044,7 +11377,7 @@
       <c r="I52" s="310"/>
       <c r="J52" s="311"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="310"/>
       <c r="B53" s="310"/>
       <c r="C53" s="310"/>
@@ -11058,7 +11391,7 @@
       </c>
       <c r="J53" s="310"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="310"/>
       <c r="B54" s="310"/>
       <c r="C54" s="310"/>
@@ -11069,7 +11402,7 @@
       <c r="I54" s="310"/>
       <c r="J54" s="310"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="310"/>
       <c r="B55" s="310"/>
       <c r="C55" s="310"/>
@@ -11082,14 +11415,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="307"/>
       <c r="B56" s="307"/>
       <c r="C56" s="307"/>
       <c r="D56" s="307"/>
       <c r="E56" s="307"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="307"/>
       <c r="B57" s="307"/>
       <c r="C57" s="307"/>
@@ -11193,7 +11526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11203,20 +11536,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11237,49 +11570,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="549" t="s">
+      <c r="B2" s="538"/>
+      <c r="C2" s="539"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="547" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="556" t="s">
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="554" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="557"/>
-      <c r="K2" s="560">
+      <c r="J2" s="555"/>
+      <c r="K2" s="558">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="561"/>
+      <c r="L2" s="559"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="552"/>
-      <c r="Q2" s="552"/>
+      <c r="P2" s="550"/>
+      <c r="Q2" s="550"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="553" t="s">
+      <c r="B3" s="541"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="543"/>
+      <c r="E3" s="551" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="558"/>
-      <c r="J3" s="559"/>
-      <c r="K3" s="562"/>
-      <c r="L3" s="563"/>
+      <c r="F3" s="552"/>
+      <c r="G3" s="552"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="556"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="560"/>
+      <c r="L3" s="561"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11288,11 +11621,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="546"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="548"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="545"/>
+      <c r="D4" s="546"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11309,24 +11642,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="568"/>
-      <c r="D5" s="484" t="str">
+      <c r="C5" s="566"/>
+      <c r="D5" s="482" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="569"/>
-      <c r="J5" s="570"/>
-      <c r="K5" s="485"/>
-      <c r="L5" s="486"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="567"/>
+      <c r="J5" s="568"/>
+      <c r="K5" s="483"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11335,24 +11668,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="571"/>
-      <c r="D6" s="478" t="str">
+      <c r="C6" s="569"/>
+      <c r="D6" s="476" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="570"/>
-      <c r="K6" s="485"/>
-      <c r="L6" s="486"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="567"/>
+      <c r="J6" s="568"/>
+      <c r="K6" s="483"/>
+      <c r="L6" s="484"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11361,29 +11694,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="531" t="s">
+      <c r="B7" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="532"/>
-      <c r="D7" s="487">
+      <c r="C7" s="530"/>
+      <c r="D7" s="485">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="531" t="s">
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="532"/>
+      <c r="I7" s="529" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="535"/>
-      <c r="K7" s="475">
+      <c r="J7" s="533"/>
+      <c r="K7" s="473">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="476"/>
+      <c r="L7" s="474"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11392,7 +11725,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11413,7 +11746,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11446,7 +11779,7 @@
       <c r="R9" s="324"/>
       <c r="S9" s="196"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11479,7 +11812,7 @@
       <c r="R10" s="326"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
@@ -11512,7 +11845,7 @@
       <c r="R11" s="328"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
@@ -11545,7 +11878,7 @@
       <c r="R12" s="328"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -11578,7 +11911,7 @@
       <c r="R13" s="328"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -11611,7 +11944,7 @@
       <c r="R14" s="328"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
@@ -11644,7 +11977,7 @@
       <c r="R15" s="328"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
@@ -11677,7 +12010,7 @@
       <c r="R16" s="328"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -11710,7 +12043,7 @@
       <c r="R17" s="328"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -11743,7 +12076,7 @@
       <c r="R18" s="330"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
@@ -11776,7 +12109,7 @@
       <c r="R19" s="330"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -11809,7 +12142,7 @@
       <c r="R20" s="330"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
@@ -11842,7 +12175,7 @@
       <c r="R21" s="330"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
@@ -11875,14 +12208,14 @@
       <c r="R22" s="330"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="536" t="s">
+      <c r="B23" s="534" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="537"/>
-      <c r="D23" s="537"/>
-      <c r="E23" s="538"/>
+      <c r="C23" s="535"/>
+      <c r="D23" s="535"/>
+      <c r="E23" s="536"/>
       <c r="F23" s="115" t="s">
         <v>16</v>
       </c>
@@ -11902,14 +12235,14 @@
       <c r="R23" s="330"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="564" t="s">
+      <c r="B24" s="562" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="565"/>
-      <c r="D24" s="565"/>
-      <c r="E24" s="566"/>
+      <c r="C24" s="563"/>
+      <c r="D24" s="563"/>
+      <c r="E24" s="564"/>
       <c r="F24" s="115" t="s">
         <v>16</v>
       </c>
@@ -11929,7 +12262,7 @@
       <c r="R24" s="332"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="109"/>
       <c r="B25" s="110"/>
       <c r="C25" s="110"/>
@@ -11950,15 +12283,15 @@
       <c r="R25" s="112"/>
       <c r="S25" s="113"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="539" t="s">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K27" s="537" t="s">
         <v>137</v>
       </c>
-      <c r="L27" s="539"/>
-      <c r="M27" s="539"/>
-      <c r="N27" s="471"/>
-      <c r="O27" s="471"/>
+      <c r="L27" s="537"/>
+      <c r="M27" s="537"/>
+      <c r="N27" s="459"/>
+      <c r="O27" s="459"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -12002,7 +12335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12012,20 +12345,20 @@
       <selection pane="bottomRight" activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12046,52 +12379,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="580">
+      <c r="B2" s="578">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="581"/>
-      <c r="D2" s="582"/>
-      <c r="E2" s="589" t="s">
+      <c r="C2" s="579"/>
+      <c r="D2" s="580"/>
+      <c r="E2" s="587" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="590"/>
-      <c r="G2" s="590"/>
-      <c r="H2" s="591"/>
-      <c r="I2" s="595" t="s">
+      <c r="F2" s="588"/>
+      <c r="G2" s="588"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="593" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="596"/>
-      <c r="K2" s="599">
+      <c r="J2" s="594"/>
+      <c r="K2" s="597">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="600"/>
+      <c r="L2" s="598"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="552"/>
-      <c r="Q2" s="552"/>
+      <c r="P2" s="550"/>
+      <c r="Q2" s="550"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="583"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="585"/>
-      <c r="E3" s="592" t="s">
+      <c r="B3" s="581"/>
+      <c r="C3" s="582"/>
+      <c r="D3" s="583"/>
+      <c r="E3" s="590" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="594"/>
-      <c r="I3" s="597"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="601"/>
-      <c r="L3" s="602"/>
+      <c r="F3" s="591"/>
+      <c r="G3" s="591"/>
+      <c r="H3" s="592"/>
+      <c r="I3" s="595"/>
+      <c r="J3" s="596"/>
+      <c r="K3" s="599"/>
+      <c r="L3" s="600"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12100,11 +12433,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="586"/>
-      <c r="C4" s="587"/>
-      <c r="D4" s="588"/>
+      <c r="B4" s="584"/>
+      <c r="C4" s="585"/>
+      <c r="D4" s="586"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -12121,24 +12454,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="484" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="482" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="576"/>
-      <c r="L5" s="486"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="574"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12147,24 +12480,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="478" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="476" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="576"/>
-      <c r="L6" s="486"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="484"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12173,29 +12506,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="531" t="s">
+      <c r="B7" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
-      <c r="D7" s="487">
+      <c r="C7" s="573"/>
+      <c r="D7" s="485">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="532"/>
+      <c r="I7" s="572" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="475">
+      <c r="J7" s="573"/>
+      <c r="K7" s="473">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="476"/>
+      <c r="L7" s="474"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12204,7 +12537,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12225,7 +12558,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12258,7 +12591,7 @@
       <c r="R9" s="324"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12291,7 +12624,7 @@
       <c r="R10" s="326"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -12324,7 +12657,7 @@
       <c r="R11" s="328"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -12357,7 +12690,7 @@
       <c r="R12" s="328"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -12390,14 +12723,14 @@
       <c r="R13" s="328"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="578" t="s">
+      <c r="B14" s="576" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="579"/>
-      <c r="D14" s="579"/>
-      <c r="E14" s="579"/>
+      <c r="C14" s="577"/>
+      <c r="D14" s="577"/>
+      <c r="E14" s="577"/>
       <c r="F14" s="115" t="s">
         <v>16</v>
       </c>
@@ -12417,15 +12750,15 @@
       <c r="R14" s="330"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="536" t="s">
+      <c r="B15" s="534" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="537"/>
-      <c r="D15" s="537"/>
-      <c r="E15" s="537"/>
-      <c r="F15" s="577"/>
+      <c r="C15" s="535"/>
+      <c r="D15" s="535"/>
+      <c r="E15" s="535"/>
+      <c r="F15" s="575"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12442,14 +12775,14 @@
       <c r="R15" s="330"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="564" t="s">
+      <c r="B16" s="562" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="565"/>
-      <c r="D16" s="565"/>
-      <c r="E16" s="566"/>
+      <c r="C16" s="563"/>
+      <c r="D16" s="563"/>
+      <c r="E16" s="564"/>
       <c r="F16" s="115" t="s">
         <v>16</v>
       </c>
@@ -12469,7 +12802,7 @@
       <c r="R16" s="332"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109"/>
       <c r="B17" s="110"/>
       <c r="C17" s="110"/>
@@ -12490,19 +12823,19 @@
       <c r="R17" s="112"/>
       <c r="S17" s="113"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="122"/>
       <c r="P18" s="123"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="122"/>
-      <c r="L19" s="539" t="s">
+      <c r="L19" s="537" t="s">
         <v>137</v>
       </c>
-      <c r="M19" s="539"/>
-      <c r="N19" s="539"/>
-      <c r="O19" s="471"/>
-      <c r="P19" s="471"/>
+      <c r="M19" s="537"/>
+      <c r="N19" s="537"/>
+      <c r="O19" s="459"/>
+      <c r="P19" s="459"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -12555,7 +12888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12565,20 +12898,20 @@
       <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12599,49 +12932,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="549" t="s">
+      <c r="B2" s="538"/>
+      <c r="C2" s="539"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="547" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="556" t="s">
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="554" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="557"/>
-      <c r="K2" s="560">
+      <c r="J2" s="555"/>
+      <c r="K2" s="558">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="561"/>
+      <c r="L2" s="559"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="552"/>
-      <c r="Q2" s="552"/>
+      <c r="P2" s="550"/>
+      <c r="Q2" s="550"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="553" t="s">
+      <c r="B3" s="541"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="543"/>
+      <c r="E3" s="551" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="558"/>
-      <c r="J3" s="559"/>
-      <c r="K3" s="562"/>
-      <c r="L3" s="563"/>
+      <c r="F3" s="552"/>
+      <c r="G3" s="552"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="556"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="560"/>
+      <c r="L3" s="561"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12650,11 +12983,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="546"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="548"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="545"/>
+      <c r="D4" s="546"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12671,24 +13004,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="568"/>
-      <c r="D5" s="484" t="str">
+      <c r="C5" s="566"/>
+      <c r="D5" s="482" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="569"/>
-      <c r="J5" s="570"/>
-      <c r="K5" s="485"/>
-      <c r="L5" s="486"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="567"/>
+      <c r="J5" s="568"/>
+      <c r="K5" s="483"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12697,24 +13030,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="571"/>
-      <c r="D6" s="478" t="str">
+      <c r="C6" s="569"/>
+      <c r="D6" s="476" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="570"/>
-      <c r="K6" s="485"/>
-      <c r="L6" s="486"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="567"/>
+      <c r="J6" s="568"/>
+      <c r="K6" s="483"/>
+      <c r="L6" s="484"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12723,29 +13056,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="531" t="s">
+      <c r="B7" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="532"/>
-      <c r="D7" s="487">
+      <c r="C7" s="530"/>
+      <c r="D7" s="485">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="531" t="s">
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="532"/>
+      <c r="I7" s="529" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="535"/>
-      <c r="K7" s="475">
+      <c r="J7" s="533"/>
+      <c r="K7" s="473">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="476"/>
+      <c r="L7" s="474"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12754,7 +13087,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12775,7 +13108,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12811,7 +13144,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12847,7 +13180,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>3</v>
@@ -12883,7 +13216,7 @@
       <c r="W11" s="100"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>27</v>
@@ -12919,7 +13252,7 @@
       <c r="W12" s="101"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>4</v>
@@ -12955,7 +13288,7 @@
       <c r="W13" s="101"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>5</v>
@@ -12991,7 +13324,7 @@
       <c r="W14" s="101"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>30</v>
@@ -13027,7 +13360,7 @@
       <c r="W15" s="100"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>31</v>
@@ -13063,7 +13396,7 @@
       <c r="W16" s="101"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="103" t="s">
         <v>32</v>
@@ -13099,7 +13432,7 @@
       <c r="W17" s="100"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>33</v>
@@ -13135,7 +13468,7 @@
       <c r="W18" s="100"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>34</v>
@@ -13171,7 +13504,7 @@
       <c r="W19" s="100"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -13204,7 +13537,7 @@
       <c r="R20" s="332"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="109"/>
       <c r="B21" s="110"/>
       <c r="C21" s="110"/>
@@ -13225,15 +13558,15 @@
       <c r="R21" s="112"/>
       <c r="S21" s="113"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L23" s="606" t="s">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L23" s="604" t="s">
         <v>137</v>
       </c>
-      <c r="M23" s="606"/>
-      <c r="N23" s="606"/>
-      <c r="O23" s="472"/>
-      <c r="P23" s="472"/>
+      <c r="M23" s="604"/>
+      <c r="N23" s="604"/>
+      <c r="O23" s="460"/>
+      <c r="P23" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -13277,7 +13610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13287,20 +13620,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13321,49 +13654,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="549" t="s">
+      <c r="B2" s="538"/>
+      <c r="C2" s="539"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="547" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="556" t="s">
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="554" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="557"/>
-      <c r="K2" s="560">
+      <c r="J2" s="555"/>
+      <c r="K2" s="558">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="561"/>
+      <c r="L2" s="559"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="607"/>
-      <c r="Q2" s="607"/>
+      <c r="P2" s="605"/>
+      <c r="Q2" s="605"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="553" t="s">
+      <c r="B3" s="541"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="543"/>
+      <c r="E3" s="551" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="558"/>
-      <c r="J3" s="559"/>
-      <c r="K3" s="562"/>
-      <c r="L3" s="563"/>
+      <c r="F3" s="552"/>
+      <c r="G3" s="552"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="556"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="560"/>
+      <c r="L3" s="561"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13372,11 +13705,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="546"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="548"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="545"/>
+      <c r="D4" s="546"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13393,24 +13726,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="568"/>
-      <c r="D5" s="484" t="str">
+      <c r="C5" s="566"/>
+      <c r="D5" s="482" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="569"/>
-      <c r="J5" s="570"/>
-      <c r="K5" s="485"/>
-      <c r="L5" s="486"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="567"/>
+      <c r="J5" s="568"/>
+      <c r="K5" s="483"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13419,24 +13752,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="571"/>
-      <c r="D6" s="478" t="str">
+      <c r="C6" s="569"/>
+      <c r="D6" s="476" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="570"/>
-      <c r="K6" s="485"/>
-      <c r="L6" s="486"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="567"/>
+      <c r="J6" s="568"/>
+      <c r="K6" s="483"/>
+      <c r="L6" s="484"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13445,29 +13778,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="531" t="s">
+      <c r="B7" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="532"/>
-      <c r="D7" s="487">
+      <c r="C7" s="530"/>
+      <c r="D7" s="485">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="531" t="s">
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="532"/>
+      <c r="I7" s="529" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="535"/>
-      <c r="K7" s="475">
+      <c r="J7" s="533"/>
+      <c r="K7" s="473">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="476"/>
+      <c r="L7" s="474"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13476,7 +13809,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13497,7 +13830,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13530,7 +13863,7 @@
       <c r="R9" s="334"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13563,7 +13896,7 @@
       <c r="R10" s="336"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13596,7 +13929,7 @@
       <c r="R11" s="336"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13629,7 +13962,7 @@
       <c r="R12" s="336"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13662,7 +13995,7 @@
       <c r="R13" s="336"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13695,7 +14028,7 @@
       <c r="R14" s="336"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13728,7 +14061,7 @@
       <c r="R15" s="338"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13749,18 +14082,21 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" spans="12:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L18" s="606" t="s">
+    <row r="17" spans="12:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L18" s="604" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="606"/>
-      <c r="N18" s="606"/>
-      <c r="O18" s="472"/>
-      <c r="P18" s="472"/>
+      <c r="M18" s="604"/>
+      <c r="N18" s="604"/>
+      <c r="O18" s="460"/>
+      <c r="P18" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K5:L5"/>
@@ -13768,18 +14104,15 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13802,7 +14135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13815,20 +14148,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13849,62 +14182,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="580"/>
-      <c r="C2" s="581"/>
-      <c r="D2" s="582"/>
-      <c r="E2" s="589" t="s">
+      <c r="B2" s="578"/>
+      <c r="C2" s="579"/>
+      <c r="D2" s="580"/>
+      <c r="E2" s="587" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="590"/>
-      <c r="G2" s="590"/>
-      <c r="H2" s="591"/>
-      <c r="I2" s="595" t="s">
+      <c r="F2" s="588"/>
+      <c r="G2" s="588"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="593" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="596"/>
-      <c r="K2" s="599">
+      <c r="J2" s="594"/>
+      <c r="K2" s="597">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="600"/>
-      <c r="M2" s="608"/>
-      <c r="N2" s="609"/>
-      <c r="O2" s="609"/>
-      <c r="P2" s="609"/>
-      <c r="Q2" s="609"/>
-      <c r="R2" s="610"/>
+      <c r="L2" s="598"/>
+      <c r="M2" s="606"/>
+      <c r="N2" s="607"/>
+      <c r="O2" s="607"/>
+      <c r="P2" s="607"/>
+      <c r="Q2" s="607"/>
+      <c r="R2" s="608"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="583"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="585"/>
-      <c r="E3" s="592" t="s">
+      <c r="B3" s="581"/>
+      <c r="C3" s="582"/>
+      <c r="D3" s="583"/>
+      <c r="E3" s="590" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="594"/>
-      <c r="I3" s="597"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="601"/>
-      <c r="L3" s="602"/>
-      <c r="M3" s="611"/>
-      <c r="N3" s="612"/>
-      <c r="O3" s="612"/>
-      <c r="P3" s="612"/>
-      <c r="Q3" s="612"/>
-      <c r="R3" s="613"/>
+      <c r="F3" s="591"/>
+      <c r="G3" s="591"/>
+      <c r="H3" s="592"/>
+      <c r="I3" s="595"/>
+      <c r="J3" s="596"/>
+      <c r="K3" s="599"/>
+      <c r="L3" s="600"/>
+      <c r="M3" s="609"/>
+      <c r="N3" s="610"/>
+      <c r="O3" s="610"/>
+      <c r="P3" s="610"/>
+      <c r="Q3" s="610"/>
+      <c r="R3" s="611"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="586"/>
-      <c r="C4" s="587"/>
-      <c r="D4" s="588"/>
+      <c r="B4" s="584"/>
+      <c r="C4" s="585"/>
+      <c r="D4" s="586"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -13913,98 +14246,98 @@
       <c r="J4" s="248"/>
       <c r="K4" s="251"/>
       <c r="L4" s="252"/>
-      <c r="M4" s="611"/>
-      <c r="N4" s="612"/>
-      <c r="O4" s="612"/>
-      <c r="P4" s="612"/>
-      <c r="Q4" s="612"/>
-      <c r="R4" s="613"/>
+      <c r="M4" s="609"/>
+      <c r="N4" s="610"/>
+      <c r="O4" s="610"/>
+      <c r="P4" s="610"/>
+      <c r="Q4" s="610"/>
+      <c r="R4" s="611"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="484" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="482" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="576"/>
-      <c r="L5" s="486"/>
-      <c r="M5" s="611"/>
-      <c r="N5" s="612"/>
-      <c r="O5" s="612"/>
-      <c r="P5" s="612"/>
-      <c r="Q5" s="612"/>
-      <c r="R5" s="613"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="574"/>
+      <c r="L5" s="484"/>
+      <c r="M5" s="609"/>
+      <c r="N5" s="610"/>
+      <c r="O5" s="610"/>
+      <c r="P5" s="610"/>
+      <c r="Q5" s="610"/>
+      <c r="R5" s="611"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="478" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="476" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="576"/>
-      <c r="L6" s="486"/>
-      <c r="M6" s="611"/>
-      <c r="N6" s="612"/>
-      <c r="O6" s="612"/>
-      <c r="P6" s="612"/>
-      <c r="Q6" s="612"/>
-      <c r="R6" s="613"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="484"/>
+      <c r="M6" s="609"/>
+      <c r="N6" s="610"/>
+      <c r="O6" s="610"/>
+      <c r="P6" s="610"/>
+      <c r="Q6" s="610"/>
+      <c r="R6" s="611"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="531" t="s">
+      <c r="B7" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
-      <c r="D7" s="487">
+      <c r="C7" s="573"/>
+      <c r="D7" s="485">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="532"/>
+      <c r="I7" s="572" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="475">
+      <c r="J7" s="573"/>
+      <c r="K7" s="473">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="476"/>
-      <c r="M7" s="611"/>
-      <c r="N7" s="612"/>
-      <c r="O7" s="612"/>
-      <c r="P7" s="612"/>
-      <c r="Q7" s="612"/>
-      <c r="R7" s="613"/>
+      <c r="L7" s="474"/>
+      <c r="M7" s="609"/>
+      <c r="N7" s="610"/>
+      <c r="O7" s="610"/>
+      <c r="P7" s="610"/>
+      <c r="Q7" s="610"/>
+      <c r="R7" s="611"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14025,7 +14358,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -14058,12 +14391,12 @@
       <c r="R9" s="324"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="627">
+      <c r="C10" s="463">
         <v>75.400000000000006</v>
       </c>
       <c r="D10" s="93">
@@ -14091,12 +14424,12 @@
       <c r="R10" s="326"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="628">
+      <c r="C11" s="464">
         <v>25.5</v>
       </c>
       <c r="D11" s="130">
@@ -14124,12 +14457,12 @@
       <c r="R11" s="328"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="628">
+      <c r="C12" s="464">
         <v>28.1</v>
       </c>
       <c r="D12" s="130">
@@ -14157,12 +14490,12 @@
       <c r="R12" s="328"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="629">
+      <c r="C13" s="465">
         <v>38.1</v>
       </c>
       <c r="D13" s="130">
@@ -14190,12 +14523,12 @@
       <c r="R13" s="328"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="630">
+      <c r="C14" s="466">
         <v>45.3</v>
       </c>
       <c r="D14" s="97">
@@ -14223,12 +14556,12 @@
       <c r="R14" s="328"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="631">
+      <c r="C15" s="467">
         <v>3.12</v>
       </c>
       <c r="D15" s="97">
@@ -14256,12 +14589,12 @@
       <c r="R15" s="328"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="631">
+      <c r="C16" s="467">
         <v>47.8</v>
       </c>
       <c r="D16" s="97">
@@ -14289,12 +14622,12 @@
       <c r="R16" s="328"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="631">
+      <c r="C17" s="467">
         <v>17.7</v>
       </c>
       <c r="D17" s="97">
@@ -14322,12 +14655,12 @@
       <c r="R17" s="328"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="630">
+      <c r="C18" s="466">
         <v>9.52</v>
       </c>
       <c r="D18" s="97">
@@ -14355,12 +14688,12 @@
       <c r="R18" s="328"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="630"/>
+      <c r="C19" s="466"/>
       <c r="D19" s="97"/>
       <c r="E19" s="97"/>
       <c r="F19" s="115"/>
@@ -14378,12 +14711,12 @@
       <c r="R19" s="328"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="631">
+      <c r="C20" s="467">
         <v>29.5</v>
       </c>
       <c r="D20" s="97">
@@ -14411,14 +14744,14 @@
       <c r="R20" s="328"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="564" t="s">
+      <c r="B21" s="562" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="565"/>
-      <c r="D21" s="565"/>
-      <c r="E21" s="566"/>
+      <c r="C21" s="563"/>
+      <c r="D21" s="563"/>
+      <c r="E21" s="564"/>
       <c r="F21" s="115" t="s">
         <v>16</v>
       </c>
@@ -14438,7 +14771,7 @@
       <c r="R21" s="332"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="109"/>
       <c r="B22" s="110"/>
       <c r="C22" s="110"/>
@@ -14459,20 +14792,28 @@
       <c r="R22" s="112"/>
       <c r="S22" s="113"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="122"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L24" s="606" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L24" s="604" t="s">
         <v>137</v>
       </c>
-      <c r="M24" s="606"/>
-      <c r="N24" s="606"/>
-      <c r="O24" s="472"/>
-      <c r="P24" s="472"/>
+      <c r="M24" s="604"/>
+      <c r="N24" s="604"/>
+      <c r="O24" s="460"/>
+      <c r="P24" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14485,14 +14826,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14512,7 +14845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14522,19 +14855,19 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14555,49 +14888,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="580"/>
-      <c r="C2" s="581"/>
-      <c r="D2" s="582"/>
-      <c r="E2" s="589" t="s">
+      <c r="B2" s="578"/>
+      <c r="C2" s="579"/>
+      <c r="D2" s="580"/>
+      <c r="E2" s="587" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="590"/>
-      <c r="G2" s="590"/>
-      <c r="H2" s="591"/>
-      <c r="I2" s="595" t="s">
+      <c r="F2" s="588"/>
+      <c r="G2" s="588"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="593" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="596"/>
-      <c r="K2" s="599">
+      <c r="J2" s="594"/>
+      <c r="K2" s="597">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="600"/>
+      <c r="L2" s="598"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="614"/>
-      <c r="Q2" s="614"/>
+      <c r="P2" s="612"/>
+      <c r="Q2" s="612"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="583"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="585"/>
-      <c r="E3" s="592" t="s">
+      <c r="B3" s="581"/>
+      <c r="C3" s="582"/>
+      <c r="D3" s="583"/>
+      <c r="E3" s="590" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="594"/>
-      <c r="I3" s="597"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="601"/>
-      <c r="L3" s="602"/>
+      <c r="F3" s="591"/>
+      <c r="G3" s="591"/>
+      <c r="H3" s="592"/>
+      <c r="I3" s="595"/>
+      <c r="J3" s="596"/>
+      <c r="K3" s="599"/>
+      <c r="L3" s="600"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14606,11 +14939,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="586"/>
-      <c r="C4" s="587"/>
-      <c r="D4" s="588"/>
+      <c r="B4" s="584"/>
+      <c r="C4" s="585"/>
+      <c r="D4" s="586"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -14627,24 +14960,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="484" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="482" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="576"/>
-      <c r="L5" s="486"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="574"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14653,24 +14986,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="565" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="478" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="476" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="576"/>
-      <c r="L6" s="486"/>
+      <c r="E6" s="570"/>
+      <c r="F6" s="570"/>
+      <c r="G6" s="570"/>
+      <c r="H6" s="571"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="484"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14679,29 +15012,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="531" t="s">
+      <c r="B7" s="529" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
-      <c r="D7" s="487">
+      <c r="C7" s="573"/>
+      <c r="D7" s="485">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="533"/>
-      <c r="F7" s="533"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="532"/>
+      <c r="I7" s="572" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="475">
+      <c r="J7" s="573"/>
+      <c r="K7" s="473">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="476"/>
+      <c r="L7" s="474"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14710,7 +15043,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14731,7 +15064,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -14764,7 +15097,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="128" t="s">
         <v>26</v>
@@ -14797,7 +15130,7 @@
       <c r="R10" s="99"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="128" t="s">
         <v>2</v>
@@ -14830,7 +15163,7 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="128" t="s">
         <v>3</v>
@@ -14863,7 +15196,7 @@
       <c r="R12" s="99"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="128" t="s">
         <v>27</v>
@@ -14896,7 +15229,7 @@
       <c r="R13" s="99"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="128" t="s">
         <v>9</v>
@@ -14929,7 +15262,7 @@
       <c r="R14" s="99"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="128" t="s">
         <v>5</v>
@@ -14962,14 +15295,14 @@
       <c r="R15" s="99"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="564" t="s">
+      <c r="B16" s="562" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="565"/>
-      <c r="D16" s="565"/>
-      <c r="E16" s="566"/>
+      <c r="C16" s="563"/>
+      <c r="D16" s="563"/>
+      <c r="E16" s="564"/>
       <c r="F16" s="258" t="s">
         <v>16</v>
       </c>
@@ -14989,7 +15322,7 @@
       <c r="R16" s="121"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109"/>
       <c r="B17" s="127"/>
       <c r="C17" s="126"/>
@@ -15010,20 +15343,33 @@
       <c r="R17" s="112"/>
       <c r="S17" s="113"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="122"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="606" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L19" s="604" t="s">
         <v>137</v>
       </c>
-      <c r="M19" s="606"/>
-      <c r="N19" s="606"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="472"/>
+      <c r="M19" s="604"/>
+      <c r="N19" s="604"/>
+      <c r="O19" s="460"/>
+      <c r="P19" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
@@ -15031,19 +15377,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
